--- a/Element Profiles/avigilon_card_readers_q1_2026.xlsx
+++ b/Element Profiles/avigilon_card_readers_q1_2026.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\A&amp;E Team\A&amp;E Sales Engineering\System Surveyor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\A&amp;E Team\A&amp;E Sales Engineering\System Surveyor\SS Access Control Profiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB8B553-2A83-496D-9F9D-1FAA06594CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9ABF97A-EC10-4C8F-B5F6-963C9A65713C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,27 @@
     <sheet name="Element Profiles" sheetId="1" r:id="rId1"/>
     <sheet name="Accessories" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1764" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1746" uniqueCount="127">
   <si>
-    <t>Export date: Aug 15, 2024</t>
+    <t>Export date: Jan 19, 2026</t>
   </si>
   <si>
     <t>Card Reader Element Profile Template</t>
@@ -107,9 +120,6 @@
     <t>Reader / User Credential Format</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t xml:space="preserve">      HID iClass - 13 Mhz</t>
   </si>
   <si>
@@ -126,9 +136,6 @@
   </si>
   <si>
     <t xml:space="preserve">      Smart Card /  iClass - 13 Mhz</t>
-  </si>
-  <si>
-    <t>YES</t>
   </si>
   <si>
     <t xml:space="preserve">      Mag Stripe</t>
@@ -155,13 +162,7 @@
     <t>Card Reader Comm Format</t>
   </si>
   <si>
-    <t>RS-485 (OSDP)</t>
-  </si>
-  <si>
     <t>Reader Color Preference</t>
-  </si>
-  <si>
-    <t>Black</t>
   </si>
   <si>
     <t>Functional Notes</t>
@@ -248,28 +249,82 @@
     <t>Accessory1</t>
   </si>
   <si>
+    <t>Enterprise: Pack of 1 entry</t>
+  </si>
+  <si>
+    <t>Avigilon</t>
+  </si>
+  <si>
+    <t>SW-ETP-P1</t>
+  </si>
+  <si>
     <t>Accessory2</t>
+  </si>
+  <si>
+    <t>Enterprise: Pack of 5 entries</t>
+  </si>
+  <si>
+    <t>SW-ETP-P5</t>
   </si>
   <si>
     <t>Accessory3</t>
   </si>
   <si>
+    <t>Enterprise: Pack of 10 entries</t>
+  </si>
+  <si>
+    <t>SW-ETP-P10</t>
+  </si>
+  <si>
     <t>Accessory4</t>
+  </si>
+  <si>
+    <t>Enterprise: Pack of 25 entries</t>
+  </si>
+  <si>
+    <t>SW-ETP-P25</t>
   </si>
   <si>
     <t>Accessory5</t>
   </si>
   <si>
+    <t>Enterprise: Pack of 100 entries</t>
+  </si>
+  <si>
+    <t>SW-ETP-P100</t>
+  </si>
+  <si>
     <t>Accessory6</t>
+  </si>
+  <si>
+    <t>Enterprise: Pack of 1000 entries</t>
+  </si>
+  <si>
+    <t>SW-ETP-P1000</t>
   </si>
   <si>
     <t>Accessory7</t>
   </si>
   <si>
+    <t>PACK OF 10 MOBILE CREDENTIALS (5 Years) Effective on June 2nd 2025</t>
+  </si>
+  <si>
+    <t>SW-ALA-MOB-P10-5Y</t>
+  </si>
+  <si>
     <t>Accessory8</t>
   </si>
   <si>
+    <t>White Front Cover for Avigilon Smart Reader v2 - Standard Form Factor</t>
+  </si>
+  <si>
+    <t>OP-CVR-W</t>
+  </si>
+  <si>
     <t>Accessory9</t>
+  </si>
+  <si>
+    <t>Accessory10</t>
   </si>
   <si>
     <t>Avigilon Alta OP-R2X-STND Smart Reader</t>
@@ -278,37 +333,19 @@
     <t>Avigilon Alta OP-R2X-STND-2M Smart Reader</t>
   </si>
   <si>
+    <t>Avigilon Alta OP-R2X-MULL Mullion Reader</t>
+  </si>
+  <si>
     <t>Avigilon Alta OP-R2X-MULL-2M Smart Reader</t>
   </si>
   <si>
-    <t>OP-CVR-W</t>
+    <t>Avigilon Alta OP-R2X-EMBD  USB Smart Reader</t>
   </si>
   <si>
-    <t>Accessory10</t>
+    <t>Avigilon Alta OP-RSC-DESK  USB Smart Reader</t>
   </si>
   <si>
-    <t>Avigilon</t>
-  </si>
-  <si>
-    <t>White Front Cover for Avigilon Smart Reader v2 - Standard Form Factor</t>
-  </si>
-  <si>
-    <t>OP-R2X-STND</t>
-  </si>
-  <si>
-    <t>Avigilon Alta OP-R2X-MULL Mullion Reader</t>
-  </si>
-  <si>
-    <t>OP-R2X-MULL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OP-R2X-MULL Mullion Smart Reader </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> OP-R2X-MULL-2M</t>
-  </si>
-  <si>
-    <t>Avigilon Alta OP-R2X-MULL-2M Mullion 2M Pigtail</t>
+    <t>Avigilon Alta OP-VID-PRO-RDR Video Reader</t>
   </si>
   <si>
     <t>OP-R2X-STND Standard</t>
@@ -317,7 +354,40 @@
     <t>OP-R2X-STND-2M Standard  2M Pigtail</t>
   </si>
   <si>
+    <t xml:space="preserve">OP-R2X-MULL Mullion Smart Reader </t>
+  </si>
+  <si>
+    <t>Avigilon Alta OP-R2X-MULL-2M Mullion 2M Pigtail</t>
+  </si>
+  <si>
+    <t>OP-R2X-EMBD  Embedded Reader</t>
+  </si>
+  <si>
+    <t>OP-RSC-DESK  Reception Enrollment Smart Reader</t>
+  </si>
+  <si>
+    <t>OP-VID-PRO-RDR Video Reader</t>
+  </si>
+  <si>
     <t>59C5DD</t>
+  </si>
+  <si>
+    <t>OP-R2X-STND</t>
+  </si>
+  <si>
+    <t>OP-R2X-MULL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OP-R2X-MULL-2M</t>
+  </si>
+  <si>
+    <t>OP-R2X-EMBD</t>
+  </si>
+  <si>
+    <t>OP-RSC-DESK</t>
+  </si>
+  <si>
+    <t>OP-VID-PRO-RDR</t>
   </si>
   <si>
     <t>Single Gang</t>
@@ -326,91 +396,31 @@
     <t>Mullion</t>
   </si>
   <si>
-    <t>https://www.avigilon.com/access-control/standard-smart-reader</t>
+    <t>Mini-Mullion</t>
   </si>
   <si>
-    <t>SW-ALA-MOB-P10-5Y</t>
+    <t>N/A</t>
   </si>
   <si>
-    <t>PACK OF 10 MOBILE CREDENTIALS (5 Years) Effective on June 2nd 2025</t>
+    <t>YES</t>
   </si>
   <si>
-    <t>Enterprise: Pack of 1 entry</t>
+    <t>RS-485 (OSDP)</t>
   </si>
   <si>
-    <t>Enterprise: Pack of 5 entries</t>
-  </si>
-  <si>
-    <t>Enterprise: Pack of 10 entries</t>
-  </si>
-  <si>
-    <t>Enterprise: Pack of 25 entries</t>
-  </si>
-  <si>
-    <t>Enterprise: Pack of 100 entries</t>
-  </si>
-  <si>
-    <t>Enterprise: Pack of 1000 entries</t>
-  </si>
-  <si>
-    <t>SW-ETP-P1</t>
-  </si>
-  <si>
-    <t>SW-ETP-P5</t>
-  </si>
-  <si>
-    <t>SW-ETP-P10</t>
-  </si>
-  <si>
-    <t>SW-ETP-P25</t>
-  </si>
-  <si>
-    <t>SW-ETP-P100</t>
-  </si>
-  <si>
-    <t>SW-ETP-P1000</t>
-  </si>
-  <si>
-    <t>PACK OF 10 MOBILE CREDENTIALS (5 Years) Effective on June 2nd 2026</t>
-  </si>
-  <si>
-    <t>PACK OF 10 MOBILE CREDENTIALS (5 Years) Effective on June 2nd 2027</t>
-  </si>
-  <si>
-    <t>PACK OF 10 MOBILE CREDENTIALS (5 Years) Effective on June 2nd 2028</t>
+    <t>Black</t>
   </si>
   <si>
     <t>Avigilon Alta Smart Reader Product Page</t>
   </si>
   <si>
-    <t>Avigilon Alta OP-R2X-EMBD  USB Smart Reader</t>
-  </si>
-  <si>
-    <t>OP-R2X-EMBD</t>
-  </si>
-  <si>
-    <t>OP-R2X-EMBD  Embedded Reader</t>
-  </si>
-  <si>
-    <t>Mini-Mullion</t>
-  </si>
-  <si>
-    <t>Avigilon Alta OP-RSC-DESK  USB Smart Reader</t>
-  </si>
-  <si>
-    <t>OP-RSC-DESK  Reception Enrollment Smart Reader</t>
-  </si>
-  <si>
-    <t>OP-RSC-DESK</t>
-  </si>
-  <si>
     <t>Avigilon Alta USB Smart Reader Product Page</t>
   </si>
   <si>
-    <t>PACK OF 10 MOBILE CREDENTIALS (5 Years) Effective on June 2nd 2029</t>
+    <t>Avigilon Alta Video Reader Product Page</t>
   </si>
   <si>
-    <t>PACK OF 10 MOBILE CREDENTIALS (5 Years) Effective on June 2nd 2030</t>
+    <t>https://www.avigilon.com/access-control/standard-smart-reader</t>
   </si>
   <si>
     <t>https://www.avigilon.com/access-control/embedded-usb-smart-reader</t>
@@ -418,24 +428,12 @@
   <si>
     <t>https://www.avigilon.com/access-control/video-reader-pro</t>
   </si>
-  <si>
-    <t>Avigilon Alta Video Reader Product Page</t>
-  </si>
-  <si>
-    <t>OP-VID-PRO-RDR</t>
-  </si>
-  <si>
-    <t>Avigilon Alta OP-VID-PRO-RDR Video Reader</t>
-  </si>
-  <si>
-    <t>OP-VID-PRO-RDR Video Reader</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -465,14 +463,8 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -617,7 +609,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2">
       <alignment horizontal="center" vertical="center"/>
@@ -651,24 +643,18 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -981,8 +967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:SJ51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42:K48"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -990,1026 +976,1024 @@
     <col min="1" max="2" width="4" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
     <col min="4" max="4" width="50" customWidth="1"/>
-    <col min="5" max="5" width="60" customWidth="1"/>
-    <col min="6" max="6" width="41" customWidth="1"/>
-    <col min="7" max="504" width="35" customWidth="1"/>
+    <col min="5" max="504" width="35" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:504" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="20"/>
-      <c r="AB1" s="20"/>
-      <c r="AC1" s="20"/>
-      <c r="AD1" s="20"/>
-      <c r="AE1" s="20"/>
-      <c r="AF1" s="20"/>
-      <c r="AG1" s="20"/>
-      <c r="AH1" s="20"/>
-      <c r="AI1" s="20"/>
-      <c r="AJ1" s="20"/>
-      <c r="AK1" s="20"/>
-      <c r="AL1" s="20"/>
-      <c r="AM1" s="20"/>
-      <c r="AN1" s="20"/>
-      <c r="AO1" s="20"/>
-      <c r="AP1" s="20"/>
-      <c r="AQ1" s="20"/>
-      <c r="AR1" s="20"/>
-      <c r="AS1" s="20"/>
-      <c r="AT1" s="20"/>
-      <c r="AU1" s="20"/>
-      <c r="AV1" s="20"/>
-      <c r="AW1" s="20"/>
-      <c r="AX1" s="20"/>
-      <c r="AY1" s="20"/>
-      <c r="AZ1" s="20"/>
-      <c r="BA1" s="20"/>
-      <c r="BB1" s="20"/>
-      <c r="BC1" s="20"/>
-      <c r="BD1" s="20"/>
-      <c r="BE1" s="20"/>
-      <c r="BF1" s="20"/>
-      <c r="BG1" s="20"/>
-      <c r="BH1" s="20"/>
-      <c r="BI1" s="20"/>
-      <c r="BJ1" s="20"/>
-      <c r="BK1" s="20"/>
-      <c r="BL1" s="20"/>
-      <c r="BM1" s="20"/>
-      <c r="BN1" s="20"/>
-      <c r="BO1" s="20"/>
-      <c r="BP1" s="20"/>
-      <c r="BQ1" s="20"/>
-      <c r="BR1" s="20"/>
-      <c r="BS1" s="20"/>
-      <c r="BT1" s="20"/>
-      <c r="BU1" s="20"/>
-      <c r="BV1" s="20"/>
-      <c r="BW1" s="20"/>
-      <c r="BX1" s="20"/>
-      <c r="BY1" s="20"/>
-      <c r="BZ1" s="20"/>
-      <c r="CA1" s="20"/>
-      <c r="CB1" s="20"/>
-      <c r="CC1" s="20"/>
-      <c r="CD1" s="20"/>
-      <c r="CE1" s="20"/>
-      <c r="CF1" s="20"/>
-      <c r="CG1" s="20"/>
-      <c r="CH1" s="20"/>
-      <c r="CI1" s="20"/>
-      <c r="CJ1" s="20"/>
-      <c r="CK1" s="20"/>
-      <c r="CL1" s="20"/>
-      <c r="CM1" s="20"/>
-      <c r="CN1" s="20"/>
-      <c r="CO1" s="20"/>
-      <c r="CP1" s="20"/>
-      <c r="CQ1" s="20"/>
-      <c r="CR1" s="20"/>
-      <c r="CS1" s="20"/>
-      <c r="CT1" s="20"/>
-      <c r="CU1" s="20"/>
-      <c r="CV1" s="20"/>
-      <c r="CW1" s="20"/>
-      <c r="CX1" s="20"/>
-      <c r="CY1" s="20"/>
-      <c r="CZ1" s="20"/>
-      <c r="DA1" s="20"/>
-      <c r="DB1" s="20"/>
-      <c r="DC1" s="20"/>
-      <c r="DD1" s="20"/>
-      <c r="DE1" s="20"/>
-      <c r="DF1" s="20"/>
-      <c r="DG1" s="20"/>
-      <c r="DH1" s="20"/>
-      <c r="DI1" s="20"/>
-      <c r="DJ1" s="20"/>
-      <c r="DK1" s="20"/>
-      <c r="DL1" s="20"/>
-      <c r="DM1" s="20"/>
-      <c r="DN1" s="20"/>
-      <c r="DO1" s="20"/>
-      <c r="DP1" s="20"/>
-      <c r="DQ1" s="20"/>
-      <c r="DR1" s="20"/>
-      <c r="DS1" s="20"/>
-      <c r="DT1" s="20"/>
-      <c r="DU1" s="20"/>
-      <c r="DV1" s="20"/>
-      <c r="DW1" s="20"/>
-      <c r="DX1" s="20"/>
-      <c r="DY1" s="20"/>
-      <c r="DZ1" s="20"/>
-      <c r="EA1" s="20"/>
-      <c r="EB1" s="20"/>
-      <c r="EC1" s="20"/>
-      <c r="ED1" s="20"/>
-      <c r="EE1" s="20"/>
-      <c r="EF1" s="20"/>
-      <c r="EG1" s="20"/>
-      <c r="EH1" s="20"/>
-      <c r="EI1" s="20"/>
-      <c r="EJ1" s="20"/>
-      <c r="EK1" s="20"/>
-      <c r="EL1" s="20"/>
-      <c r="EM1" s="20"/>
-      <c r="EN1" s="20"/>
-      <c r="EO1" s="20"/>
-      <c r="EP1" s="20"/>
-      <c r="EQ1" s="20"/>
-      <c r="ER1" s="20"/>
-      <c r="ES1" s="20"/>
-      <c r="ET1" s="20"/>
-      <c r="EU1" s="20"/>
-      <c r="EV1" s="20"/>
-      <c r="EW1" s="20"/>
-      <c r="EX1" s="20"/>
-      <c r="EY1" s="20"/>
-      <c r="EZ1" s="20"/>
-      <c r="FA1" s="20"/>
-      <c r="FB1" s="20"/>
-      <c r="FC1" s="20"/>
-      <c r="FD1" s="20"/>
-      <c r="FE1" s="20"/>
-      <c r="FF1" s="20"/>
-      <c r="FG1" s="20"/>
-      <c r="FH1" s="20"/>
-      <c r="FI1" s="20"/>
-      <c r="FJ1" s="20"/>
-      <c r="FK1" s="20"/>
-      <c r="FL1" s="20"/>
-      <c r="FM1" s="20"/>
-      <c r="FN1" s="20"/>
-      <c r="FO1" s="20"/>
-      <c r="FP1" s="20"/>
-      <c r="FQ1" s="20"/>
-      <c r="FR1" s="20"/>
-      <c r="FS1" s="20"/>
-      <c r="FT1" s="20"/>
-      <c r="FU1" s="20"/>
-      <c r="FV1" s="20"/>
-      <c r="FW1" s="20"/>
-      <c r="FX1" s="20"/>
-      <c r="FY1" s="20"/>
-      <c r="FZ1" s="20"/>
-      <c r="GA1" s="20"/>
-      <c r="GB1" s="20"/>
-      <c r="GC1" s="20"/>
-      <c r="GD1" s="20"/>
-      <c r="GE1" s="20"/>
-      <c r="GF1" s="20"/>
-      <c r="GG1" s="20"/>
-      <c r="GH1" s="20"/>
-      <c r="GI1" s="20"/>
-      <c r="GJ1" s="20"/>
-      <c r="GK1" s="20"/>
-      <c r="GL1" s="20"/>
-      <c r="GM1" s="20"/>
-      <c r="GN1" s="20"/>
-      <c r="GO1" s="20"/>
-      <c r="GP1" s="20"/>
-      <c r="GQ1" s="20"/>
-      <c r="GR1" s="20"/>
-      <c r="GS1" s="20"/>
-      <c r="GT1" s="20"/>
-      <c r="GU1" s="20"/>
-      <c r="GV1" s="20"/>
-      <c r="GW1" s="20"/>
-      <c r="GX1" s="20"/>
-      <c r="GY1" s="20"/>
-      <c r="GZ1" s="20"/>
-      <c r="HA1" s="20"/>
-      <c r="HB1" s="20"/>
-      <c r="HC1" s="20"/>
-      <c r="HD1" s="20"/>
-      <c r="HE1" s="20"/>
-      <c r="HF1" s="20"/>
-      <c r="HG1" s="20"/>
-      <c r="HH1" s="20"/>
-      <c r="HI1" s="20"/>
-      <c r="HJ1" s="20"/>
-      <c r="HK1" s="20"/>
-      <c r="HL1" s="20"/>
-      <c r="HM1" s="20"/>
-      <c r="HN1" s="20"/>
-      <c r="HO1" s="20"/>
-      <c r="HP1" s="20"/>
-      <c r="HQ1" s="20"/>
-      <c r="HR1" s="20"/>
-      <c r="HS1" s="20"/>
-      <c r="HT1" s="20"/>
-      <c r="HU1" s="20"/>
-      <c r="HV1" s="20"/>
-      <c r="HW1" s="20"/>
-      <c r="HX1" s="20"/>
-      <c r="HY1" s="20"/>
-      <c r="HZ1" s="20"/>
-      <c r="IA1" s="20"/>
-      <c r="IB1" s="20"/>
-      <c r="IC1" s="20"/>
-      <c r="ID1" s="20"/>
-      <c r="IE1" s="20"/>
-      <c r="IF1" s="20"/>
-      <c r="IG1" s="20"/>
-      <c r="IH1" s="20"/>
-      <c r="II1" s="20"/>
-      <c r="IJ1" s="20"/>
-      <c r="IK1" s="20"/>
-      <c r="IL1" s="20"/>
-      <c r="IM1" s="20"/>
-      <c r="IN1" s="20"/>
-      <c r="IO1" s="20"/>
-      <c r="IP1" s="20"/>
-      <c r="IQ1" s="20"/>
-      <c r="IR1" s="20"/>
-      <c r="IS1" s="20"/>
-      <c r="IT1" s="20"/>
-      <c r="IU1" s="20"/>
-      <c r="IV1" s="20"/>
-      <c r="IW1" s="20"/>
-      <c r="IX1" s="20"/>
-      <c r="IY1" s="20"/>
-      <c r="IZ1" s="20"/>
-      <c r="JA1" s="20"/>
-      <c r="JB1" s="20"/>
-      <c r="JC1" s="20"/>
-      <c r="JD1" s="20"/>
-      <c r="JE1" s="20"/>
-      <c r="JF1" s="20"/>
-      <c r="JG1" s="20"/>
-      <c r="JH1" s="20"/>
-      <c r="JI1" s="20"/>
-      <c r="JJ1" s="20"/>
-      <c r="JK1" s="20"/>
-      <c r="JL1" s="20"/>
-      <c r="JM1" s="20"/>
-      <c r="JN1" s="20"/>
-      <c r="JO1" s="20"/>
-      <c r="JP1" s="20"/>
-      <c r="JQ1" s="20"/>
-      <c r="JR1" s="20"/>
-      <c r="JS1" s="20"/>
-      <c r="JT1" s="20"/>
-      <c r="JU1" s="20"/>
-      <c r="JV1" s="20"/>
-      <c r="JW1" s="20"/>
-      <c r="JX1" s="20"/>
-      <c r="JY1" s="20"/>
-      <c r="JZ1" s="20"/>
-      <c r="KA1" s="20"/>
-      <c r="KB1" s="20"/>
-      <c r="KC1" s="20"/>
-      <c r="KD1" s="20"/>
-      <c r="KE1" s="20"/>
-      <c r="KF1" s="20"/>
-      <c r="KG1" s="20"/>
-      <c r="KH1" s="20"/>
-      <c r="KI1" s="20"/>
-      <c r="KJ1" s="20"/>
-      <c r="KK1" s="20"/>
-      <c r="KL1" s="20"/>
-      <c r="KM1" s="20"/>
-      <c r="KN1" s="20"/>
-      <c r="KO1" s="20"/>
-      <c r="KP1" s="20"/>
-      <c r="KQ1" s="20"/>
-      <c r="KR1" s="20"/>
-      <c r="KS1" s="20"/>
-      <c r="KT1" s="20"/>
-      <c r="KU1" s="20"/>
-      <c r="KV1" s="20"/>
-      <c r="KW1" s="20"/>
-      <c r="KX1" s="20"/>
-      <c r="KY1" s="20"/>
-      <c r="KZ1" s="20"/>
-      <c r="LA1" s="20"/>
-      <c r="LB1" s="20"/>
-      <c r="LC1" s="20"/>
-      <c r="LD1" s="20"/>
-      <c r="LE1" s="20"/>
-      <c r="LF1" s="20"/>
-      <c r="LG1" s="20"/>
-      <c r="LH1" s="20"/>
-      <c r="LI1" s="20"/>
-      <c r="LJ1" s="20"/>
-      <c r="LK1" s="20"/>
-      <c r="LL1" s="20"/>
-      <c r="LM1" s="20"/>
-      <c r="LN1" s="20"/>
-      <c r="LO1" s="20"/>
-      <c r="LP1" s="20"/>
-      <c r="LQ1" s="20"/>
-      <c r="LR1" s="20"/>
-      <c r="LS1" s="20"/>
-      <c r="LT1" s="20"/>
-      <c r="LU1" s="20"/>
-      <c r="LV1" s="20"/>
-      <c r="LW1" s="20"/>
-      <c r="LX1" s="20"/>
-      <c r="LY1" s="20"/>
-      <c r="LZ1" s="20"/>
-      <c r="MA1" s="20"/>
-      <c r="MB1" s="20"/>
-      <c r="MC1" s="20"/>
-      <c r="MD1" s="20"/>
-      <c r="ME1" s="20"/>
-      <c r="MF1" s="20"/>
-      <c r="MG1" s="20"/>
-      <c r="MH1" s="20"/>
-      <c r="MI1" s="20"/>
-      <c r="MJ1" s="20"/>
-      <c r="MK1" s="20"/>
-      <c r="ML1" s="20"/>
-      <c r="MM1" s="20"/>
-      <c r="MN1" s="20"/>
-      <c r="MO1" s="20"/>
-      <c r="MP1" s="20"/>
-      <c r="MQ1" s="20"/>
-      <c r="MR1" s="20"/>
-      <c r="MS1" s="20"/>
-      <c r="MT1" s="20"/>
-      <c r="MU1" s="20"/>
-      <c r="MV1" s="20"/>
-      <c r="MW1" s="20"/>
-      <c r="MX1" s="20"/>
-      <c r="MY1" s="20"/>
-      <c r="MZ1" s="20"/>
-      <c r="NA1" s="20"/>
-      <c r="NB1" s="20"/>
-      <c r="NC1" s="20"/>
-      <c r="ND1" s="20"/>
-      <c r="NE1" s="20"/>
-      <c r="NF1" s="20"/>
-      <c r="NG1" s="20"/>
-      <c r="NH1" s="20"/>
-      <c r="NI1" s="20"/>
-      <c r="NJ1" s="20"/>
-      <c r="NK1" s="20"/>
-      <c r="NL1" s="20"/>
-      <c r="NM1" s="20"/>
-      <c r="NN1" s="20"/>
-      <c r="NO1" s="20"/>
-      <c r="NP1" s="20"/>
-      <c r="NQ1" s="20"/>
-      <c r="NR1" s="20"/>
-      <c r="NS1" s="20"/>
-      <c r="NT1" s="20"/>
-      <c r="NU1" s="20"/>
-      <c r="NV1" s="20"/>
-      <c r="NW1" s="20"/>
-      <c r="NX1" s="20"/>
-      <c r="NY1" s="20"/>
-      <c r="NZ1" s="20"/>
-      <c r="OA1" s="20"/>
-      <c r="OB1" s="20"/>
-      <c r="OC1" s="20"/>
-      <c r="OD1" s="20"/>
-      <c r="OE1" s="20"/>
-      <c r="OF1" s="20"/>
-      <c r="OG1" s="20"/>
-      <c r="OH1" s="20"/>
-      <c r="OI1" s="20"/>
-      <c r="OJ1" s="20"/>
-      <c r="OK1" s="20"/>
-      <c r="OL1" s="20"/>
-      <c r="OM1" s="20"/>
-      <c r="ON1" s="20"/>
-      <c r="OO1" s="20"/>
-      <c r="OP1" s="20"/>
-      <c r="OQ1" s="20"/>
-      <c r="OR1" s="20"/>
-      <c r="OS1" s="20"/>
-      <c r="OT1" s="20"/>
-      <c r="OU1" s="20"/>
-      <c r="OV1" s="20"/>
-      <c r="OW1" s="20"/>
-      <c r="OX1" s="20"/>
-      <c r="OY1" s="20"/>
-      <c r="OZ1" s="20"/>
-      <c r="PA1" s="20"/>
-      <c r="PB1" s="20"/>
-      <c r="PC1" s="20"/>
-      <c r="PD1" s="20"/>
-      <c r="PE1" s="20"/>
-      <c r="PF1" s="20"/>
-      <c r="PG1" s="20"/>
-      <c r="PH1" s="20"/>
-      <c r="PI1" s="20"/>
-      <c r="PJ1" s="20"/>
-      <c r="PK1" s="20"/>
-      <c r="PL1" s="20"/>
-      <c r="PM1" s="20"/>
-      <c r="PN1" s="20"/>
-      <c r="PO1" s="20"/>
-      <c r="PP1" s="20"/>
-      <c r="PQ1" s="20"/>
-      <c r="PR1" s="20"/>
-      <c r="PS1" s="20"/>
-      <c r="PT1" s="20"/>
-      <c r="PU1" s="20"/>
-      <c r="PV1" s="20"/>
-      <c r="PW1" s="20"/>
-      <c r="PX1" s="20"/>
-      <c r="PY1" s="20"/>
-      <c r="PZ1" s="20"/>
-      <c r="QA1" s="20"/>
-      <c r="QB1" s="20"/>
-      <c r="QC1" s="20"/>
-      <c r="QD1" s="20"/>
-      <c r="QE1" s="20"/>
-      <c r="QF1" s="20"/>
-      <c r="QG1" s="20"/>
-      <c r="QH1" s="20"/>
-      <c r="QI1" s="20"/>
-      <c r="QJ1" s="20"/>
-      <c r="QK1" s="20"/>
-      <c r="QL1" s="20"/>
-      <c r="QM1" s="20"/>
-      <c r="QN1" s="20"/>
-      <c r="QO1" s="20"/>
-      <c r="QP1" s="20"/>
-      <c r="QQ1" s="20"/>
-      <c r="QR1" s="20"/>
-      <c r="QS1" s="20"/>
-      <c r="QT1" s="20"/>
-      <c r="QU1" s="20"/>
-      <c r="QV1" s="20"/>
-      <c r="QW1" s="20"/>
-      <c r="QX1" s="20"/>
-      <c r="QY1" s="20"/>
-      <c r="QZ1" s="20"/>
-      <c r="RA1" s="20"/>
-      <c r="RB1" s="20"/>
-      <c r="RC1" s="20"/>
-      <c r="RD1" s="20"/>
-      <c r="RE1" s="20"/>
-      <c r="RF1" s="20"/>
-      <c r="RG1" s="20"/>
-      <c r="RH1" s="20"/>
-      <c r="RI1" s="20"/>
-      <c r="RJ1" s="20"/>
-      <c r="RK1" s="20"/>
-      <c r="RL1" s="20"/>
-      <c r="RM1" s="20"/>
-      <c r="RN1" s="20"/>
-      <c r="RO1" s="20"/>
-      <c r="RP1" s="20"/>
-      <c r="RQ1" s="20"/>
-      <c r="RR1" s="20"/>
-      <c r="RS1" s="20"/>
-      <c r="RT1" s="20"/>
-      <c r="RU1" s="20"/>
-      <c r="RV1" s="20"/>
-      <c r="RW1" s="20"/>
-      <c r="RX1" s="20"/>
-      <c r="RY1" s="20"/>
-      <c r="RZ1" s="20"/>
-      <c r="SA1" s="20"/>
-      <c r="SB1" s="20"/>
-      <c r="SC1" s="20"/>
-      <c r="SD1" s="20"/>
-      <c r="SE1" s="20"/>
-      <c r="SF1" s="20"/>
-      <c r="SG1" s="20"/>
-      <c r="SH1" s="20"/>
-      <c r="SI1" s="20"/>
-      <c r="SJ1" s="21"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="16"/>
+      <c r="AE1" s="16"/>
+      <c r="AF1" s="16"/>
+      <c r="AG1" s="16"/>
+      <c r="AH1" s="16"/>
+      <c r="AI1" s="16"/>
+      <c r="AJ1" s="16"/>
+      <c r="AK1" s="16"/>
+      <c r="AL1" s="16"/>
+      <c r="AM1" s="16"/>
+      <c r="AN1" s="16"/>
+      <c r="AO1" s="16"/>
+      <c r="AP1" s="16"/>
+      <c r="AQ1" s="16"/>
+      <c r="AR1" s="16"/>
+      <c r="AS1" s="16"/>
+      <c r="AT1" s="16"/>
+      <c r="AU1" s="16"/>
+      <c r="AV1" s="16"/>
+      <c r="AW1" s="16"/>
+      <c r="AX1" s="16"/>
+      <c r="AY1" s="16"/>
+      <c r="AZ1" s="16"/>
+      <c r="BA1" s="16"/>
+      <c r="BB1" s="16"/>
+      <c r="BC1" s="16"/>
+      <c r="BD1" s="16"/>
+      <c r="BE1" s="16"/>
+      <c r="BF1" s="16"/>
+      <c r="BG1" s="16"/>
+      <c r="BH1" s="16"/>
+      <c r="BI1" s="16"/>
+      <c r="BJ1" s="16"/>
+      <c r="BK1" s="16"/>
+      <c r="BL1" s="16"/>
+      <c r="BM1" s="16"/>
+      <c r="BN1" s="16"/>
+      <c r="BO1" s="16"/>
+      <c r="BP1" s="16"/>
+      <c r="BQ1" s="16"/>
+      <c r="BR1" s="16"/>
+      <c r="BS1" s="16"/>
+      <c r="BT1" s="16"/>
+      <c r="BU1" s="16"/>
+      <c r="BV1" s="16"/>
+      <c r="BW1" s="16"/>
+      <c r="BX1" s="16"/>
+      <c r="BY1" s="16"/>
+      <c r="BZ1" s="16"/>
+      <c r="CA1" s="16"/>
+      <c r="CB1" s="16"/>
+      <c r="CC1" s="16"/>
+      <c r="CD1" s="16"/>
+      <c r="CE1" s="16"/>
+      <c r="CF1" s="16"/>
+      <c r="CG1" s="16"/>
+      <c r="CH1" s="16"/>
+      <c r="CI1" s="16"/>
+      <c r="CJ1" s="16"/>
+      <c r="CK1" s="16"/>
+      <c r="CL1" s="16"/>
+      <c r="CM1" s="16"/>
+      <c r="CN1" s="16"/>
+      <c r="CO1" s="16"/>
+      <c r="CP1" s="16"/>
+      <c r="CQ1" s="16"/>
+      <c r="CR1" s="16"/>
+      <c r="CS1" s="16"/>
+      <c r="CT1" s="16"/>
+      <c r="CU1" s="16"/>
+      <c r="CV1" s="16"/>
+      <c r="CW1" s="16"/>
+      <c r="CX1" s="16"/>
+      <c r="CY1" s="16"/>
+      <c r="CZ1" s="16"/>
+      <c r="DA1" s="16"/>
+      <c r="DB1" s="16"/>
+      <c r="DC1" s="16"/>
+      <c r="DD1" s="16"/>
+      <c r="DE1" s="16"/>
+      <c r="DF1" s="16"/>
+      <c r="DG1" s="16"/>
+      <c r="DH1" s="16"/>
+      <c r="DI1" s="16"/>
+      <c r="DJ1" s="16"/>
+      <c r="DK1" s="16"/>
+      <c r="DL1" s="16"/>
+      <c r="DM1" s="16"/>
+      <c r="DN1" s="16"/>
+      <c r="DO1" s="16"/>
+      <c r="DP1" s="16"/>
+      <c r="DQ1" s="16"/>
+      <c r="DR1" s="16"/>
+      <c r="DS1" s="16"/>
+      <c r="DT1" s="16"/>
+      <c r="DU1" s="16"/>
+      <c r="DV1" s="16"/>
+      <c r="DW1" s="16"/>
+      <c r="DX1" s="16"/>
+      <c r="DY1" s="16"/>
+      <c r="DZ1" s="16"/>
+      <c r="EA1" s="16"/>
+      <c r="EB1" s="16"/>
+      <c r="EC1" s="16"/>
+      <c r="ED1" s="16"/>
+      <c r="EE1" s="16"/>
+      <c r="EF1" s="16"/>
+      <c r="EG1" s="16"/>
+      <c r="EH1" s="16"/>
+      <c r="EI1" s="16"/>
+      <c r="EJ1" s="16"/>
+      <c r="EK1" s="16"/>
+      <c r="EL1" s="16"/>
+      <c r="EM1" s="16"/>
+      <c r="EN1" s="16"/>
+      <c r="EO1" s="16"/>
+      <c r="EP1" s="16"/>
+      <c r="EQ1" s="16"/>
+      <c r="ER1" s="16"/>
+      <c r="ES1" s="16"/>
+      <c r="ET1" s="16"/>
+      <c r="EU1" s="16"/>
+      <c r="EV1" s="16"/>
+      <c r="EW1" s="16"/>
+      <c r="EX1" s="16"/>
+      <c r="EY1" s="16"/>
+      <c r="EZ1" s="16"/>
+      <c r="FA1" s="16"/>
+      <c r="FB1" s="16"/>
+      <c r="FC1" s="16"/>
+      <c r="FD1" s="16"/>
+      <c r="FE1" s="16"/>
+      <c r="FF1" s="16"/>
+      <c r="FG1" s="16"/>
+      <c r="FH1" s="16"/>
+      <c r="FI1" s="16"/>
+      <c r="FJ1" s="16"/>
+      <c r="FK1" s="16"/>
+      <c r="FL1" s="16"/>
+      <c r="FM1" s="16"/>
+      <c r="FN1" s="16"/>
+      <c r="FO1" s="16"/>
+      <c r="FP1" s="16"/>
+      <c r="FQ1" s="16"/>
+      <c r="FR1" s="16"/>
+      <c r="FS1" s="16"/>
+      <c r="FT1" s="16"/>
+      <c r="FU1" s="16"/>
+      <c r="FV1" s="16"/>
+      <c r="FW1" s="16"/>
+      <c r="FX1" s="16"/>
+      <c r="FY1" s="16"/>
+      <c r="FZ1" s="16"/>
+      <c r="GA1" s="16"/>
+      <c r="GB1" s="16"/>
+      <c r="GC1" s="16"/>
+      <c r="GD1" s="16"/>
+      <c r="GE1" s="16"/>
+      <c r="GF1" s="16"/>
+      <c r="GG1" s="16"/>
+      <c r="GH1" s="16"/>
+      <c r="GI1" s="16"/>
+      <c r="GJ1" s="16"/>
+      <c r="GK1" s="16"/>
+      <c r="GL1" s="16"/>
+      <c r="GM1" s="16"/>
+      <c r="GN1" s="16"/>
+      <c r="GO1" s="16"/>
+      <c r="GP1" s="16"/>
+      <c r="GQ1" s="16"/>
+      <c r="GR1" s="16"/>
+      <c r="GS1" s="16"/>
+      <c r="GT1" s="16"/>
+      <c r="GU1" s="16"/>
+      <c r="GV1" s="16"/>
+      <c r="GW1" s="16"/>
+      <c r="GX1" s="16"/>
+      <c r="GY1" s="16"/>
+      <c r="GZ1" s="16"/>
+      <c r="HA1" s="16"/>
+      <c r="HB1" s="16"/>
+      <c r="HC1" s="16"/>
+      <c r="HD1" s="16"/>
+      <c r="HE1" s="16"/>
+      <c r="HF1" s="16"/>
+      <c r="HG1" s="16"/>
+      <c r="HH1" s="16"/>
+      <c r="HI1" s="16"/>
+      <c r="HJ1" s="16"/>
+      <c r="HK1" s="16"/>
+      <c r="HL1" s="16"/>
+      <c r="HM1" s="16"/>
+      <c r="HN1" s="16"/>
+      <c r="HO1" s="16"/>
+      <c r="HP1" s="16"/>
+      <c r="HQ1" s="16"/>
+      <c r="HR1" s="16"/>
+      <c r="HS1" s="16"/>
+      <c r="HT1" s="16"/>
+      <c r="HU1" s="16"/>
+      <c r="HV1" s="16"/>
+      <c r="HW1" s="16"/>
+      <c r="HX1" s="16"/>
+      <c r="HY1" s="16"/>
+      <c r="HZ1" s="16"/>
+      <c r="IA1" s="16"/>
+      <c r="IB1" s="16"/>
+      <c r="IC1" s="16"/>
+      <c r="ID1" s="16"/>
+      <c r="IE1" s="16"/>
+      <c r="IF1" s="16"/>
+      <c r="IG1" s="16"/>
+      <c r="IH1" s="16"/>
+      <c r="II1" s="16"/>
+      <c r="IJ1" s="16"/>
+      <c r="IK1" s="16"/>
+      <c r="IL1" s="16"/>
+      <c r="IM1" s="16"/>
+      <c r="IN1" s="16"/>
+      <c r="IO1" s="16"/>
+      <c r="IP1" s="16"/>
+      <c r="IQ1" s="16"/>
+      <c r="IR1" s="16"/>
+      <c r="IS1" s="16"/>
+      <c r="IT1" s="16"/>
+      <c r="IU1" s="16"/>
+      <c r="IV1" s="16"/>
+      <c r="IW1" s="16"/>
+      <c r="IX1" s="16"/>
+      <c r="IY1" s="16"/>
+      <c r="IZ1" s="16"/>
+      <c r="JA1" s="16"/>
+      <c r="JB1" s="16"/>
+      <c r="JC1" s="16"/>
+      <c r="JD1" s="16"/>
+      <c r="JE1" s="16"/>
+      <c r="JF1" s="16"/>
+      <c r="JG1" s="16"/>
+      <c r="JH1" s="16"/>
+      <c r="JI1" s="16"/>
+      <c r="JJ1" s="16"/>
+      <c r="JK1" s="16"/>
+      <c r="JL1" s="16"/>
+      <c r="JM1" s="16"/>
+      <c r="JN1" s="16"/>
+      <c r="JO1" s="16"/>
+      <c r="JP1" s="16"/>
+      <c r="JQ1" s="16"/>
+      <c r="JR1" s="16"/>
+      <c r="JS1" s="16"/>
+      <c r="JT1" s="16"/>
+      <c r="JU1" s="16"/>
+      <c r="JV1" s="16"/>
+      <c r="JW1" s="16"/>
+      <c r="JX1" s="16"/>
+      <c r="JY1" s="16"/>
+      <c r="JZ1" s="16"/>
+      <c r="KA1" s="16"/>
+      <c r="KB1" s="16"/>
+      <c r="KC1" s="16"/>
+      <c r="KD1" s="16"/>
+      <c r="KE1" s="16"/>
+      <c r="KF1" s="16"/>
+      <c r="KG1" s="16"/>
+      <c r="KH1" s="16"/>
+      <c r="KI1" s="16"/>
+      <c r="KJ1" s="16"/>
+      <c r="KK1" s="16"/>
+      <c r="KL1" s="16"/>
+      <c r="KM1" s="16"/>
+      <c r="KN1" s="16"/>
+      <c r="KO1" s="16"/>
+      <c r="KP1" s="16"/>
+      <c r="KQ1" s="16"/>
+      <c r="KR1" s="16"/>
+      <c r="KS1" s="16"/>
+      <c r="KT1" s="16"/>
+      <c r="KU1" s="16"/>
+      <c r="KV1" s="16"/>
+      <c r="KW1" s="16"/>
+      <c r="KX1" s="16"/>
+      <c r="KY1" s="16"/>
+      <c r="KZ1" s="16"/>
+      <c r="LA1" s="16"/>
+      <c r="LB1" s="16"/>
+      <c r="LC1" s="16"/>
+      <c r="LD1" s="16"/>
+      <c r="LE1" s="16"/>
+      <c r="LF1" s="16"/>
+      <c r="LG1" s="16"/>
+      <c r="LH1" s="16"/>
+      <c r="LI1" s="16"/>
+      <c r="LJ1" s="16"/>
+      <c r="LK1" s="16"/>
+      <c r="LL1" s="16"/>
+      <c r="LM1" s="16"/>
+      <c r="LN1" s="16"/>
+      <c r="LO1" s="16"/>
+      <c r="LP1" s="16"/>
+      <c r="LQ1" s="16"/>
+      <c r="LR1" s="16"/>
+      <c r="LS1" s="16"/>
+      <c r="LT1" s="16"/>
+      <c r="LU1" s="16"/>
+      <c r="LV1" s="16"/>
+      <c r="LW1" s="16"/>
+      <c r="LX1" s="16"/>
+      <c r="LY1" s="16"/>
+      <c r="LZ1" s="16"/>
+      <c r="MA1" s="16"/>
+      <c r="MB1" s="16"/>
+      <c r="MC1" s="16"/>
+      <c r="MD1" s="16"/>
+      <c r="ME1" s="16"/>
+      <c r="MF1" s="16"/>
+      <c r="MG1" s="16"/>
+      <c r="MH1" s="16"/>
+      <c r="MI1" s="16"/>
+      <c r="MJ1" s="16"/>
+      <c r="MK1" s="16"/>
+      <c r="ML1" s="16"/>
+      <c r="MM1" s="16"/>
+      <c r="MN1" s="16"/>
+      <c r="MO1" s="16"/>
+      <c r="MP1" s="16"/>
+      <c r="MQ1" s="16"/>
+      <c r="MR1" s="16"/>
+      <c r="MS1" s="16"/>
+      <c r="MT1" s="16"/>
+      <c r="MU1" s="16"/>
+      <c r="MV1" s="16"/>
+      <c r="MW1" s="16"/>
+      <c r="MX1" s="16"/>
+      <c r="MY1" s="16"/>
+      <c r="MZ1" s="16"/>
+      <c r="NA1" s="16"/>
+      <c r="NB1" s="16"/>
+      <c r="NC1" s="16"/>
+      <c r="ND1" s="16"/>
+      <c r="NE1" s="16"/>
+      <c r="NF1" s="16"/>
+      <c r="NG1" s="16"/>
+      <c r="NH1" s="16"/>
+      <c r="NI1" s="16"/>
+      <c r="NJ1" s="16"/>
+      <c r="NK1" s="16"/>
+      <c r="NL1" s="16"/>
+      <c r="NM1" s="16"/>
+      <c r="NN1" s="16"/>
+      <c r="NO1" s="16"/>
+      <c r="NP1" s="16"/>
+      <c r="NQ1" s="16"/>
+      <c r="NR1" s="16"/>
+      <c r="NS1" s="16"/>
+      <c r="NT1" s="16"/>
+      <c r="NU1" s="16"/>
+      <c r="NV1" s="16"/>
+      <c r="NW1" s="16"/>
+      <c r="NX1" s="16"/>
+      <c r="NY1" s="16"/>
+      <c r="NZ1" s="16"/>
+      <c r="OA1" s="16"/>
+      <c r="OB1" s="16"/>
+      <c r="OC1" s="16"/>
+      <c r="OD1" s="16"/>
+      <c r="OE1" s="16"/>
+      <c r="OF1" s="16"/>
+      <c r="OG1" s="16"/>
+      <c r="OH1" s="16"/>
+      <c r="OI1" s="16"/>
+      <c r="OJ1" s="16"/>
+      <c r="OK1" s="16"/>
+      <c r="OL1" s="16"/>
+      <c r="OM1" s="16"/>
+      <c r="ON1" s="16"/>
+      <c r="OO1" s="16"/>
+      <c r="OP1" s="16"/>
+      <c r="OQ1" s="16"/>
+      <c r="OR1" s="16"/>
+      <c r="OS1" s="16"/>
+      <c r="OT1" s="16"/>
+      <c r="OU1" s="16"/>
+      <c r="OV1" s="16"/>
+      <c r="OW1" s="16"/>
+      <c r="OX1" s="16"/>
+      <c r="OY1" s="16"/>
+      <c r="OZ1" s="16"/>
+      <c r="PA1" s="16"/>
+      <c r="PB1" s="16"/>
+      <c r="PC1" s="16"/>
+      <c r="PD1" s="16"/>
+      <c r="PE1" s="16"/>
+      <c r="PF1" s="16"/>
+      <c r="PG1" s="16"/>
+      <c r="PH1" s="16"/>
+      <c r="PI1" s="16"/>
+      <c r="PJ1" s="16"/>
+      <c r="PK1" s="16"/>
+      <c r="PL1" s="16"/>
+      <c r="PM1" s="16"/>
+      <c r="PN1" s="16"/>
+      <c r="PO1" s="16"/>
+      <c r="PP1" s="16"/>
+      <c r="PQ1" s="16"/>
+      <c r="PR1" s="16"/>
+      <c r="PS1" s="16"/>
+      <c r="PT1" s="16"/>
+      <c r="PU1" s="16"/>
+      <c r="PV1" s="16"/>
+      <c r="PW1" s="16"/>
+      <c r="PX1" s="16"/>
+      <c r="PY1" s="16"/>
+      <c r="PZ1" s="16"/>
+      <c r="QA1" s="16"/>
+      <c r="QB1" s="16"/>
+      <c r="QC1" s="16"/>
+      <c r="QD1" s="16"/>
+      <c r="QE1" s="16"/>
+      <c r="QF1" s="16"/>
+      <c r="QG1" s="16"/>
+      <c r="QH1" s="16"/>
+      <c r="QI1" s="16"/>
+      <c r="QJ1" s="16"/>
+      <c r="QK1" s="16"/>
+      <c r="QL1" s="16"/>
+      <c r="QM1" s="16"/>
+      <c r="QN1" s="16"/>
+      <c r="QO1" s="16"/>
+      <c r="QP1" s="16"/>
+      <c r="QQ1" s="16"/>
+      <c r="QR1" s="16"/>
+      <c r="QS1" s="16"/>
+      <c r="QT1" s="16"/>
+      <c r="QU1" s="16"/>
+      <c r="QV1" s="16"/>
+      <c r="QW1" s="16"/>
+      <c r="QX1" s="16"/>
+      <c r="QY1" s="16"/>
+      <c r="QZ1" s="16"/>
+      <c r="RA1" s="16"/>
+      <c r="RB1" s="16"/>
+      <c r="RC1" s="16"/>
+      <c r="RD1" s="16"/>
+      <c r="RE1" s="16"/>
+      <c r="RF1" s="16"/>
+      <c r="RG1" s="16"/>
+      <c r="RH1" s="16"/>
+      <c r="RI1" s="16"/>
+      <c r="RJ1" s="16"/>
+      <c r="RK1" s="16"/>
+      <c r="RL1" s="16"/>
+      <c r="RM1" s="16"/>
+      <c r="RN1" s="16"/>
+      <c r="RO1" s="16"/>
+      <c r="RP1" s="16"/>
+      <c r="RQ1" s="16"/>
+      <c r="RR1" s="16"/>
+      <c r="RS1" s="16"/>
+      <c r="RT1" s="16"/>
+      <c r="RU1" s="16"/>
+      <c r="RV1" s="16"/>
+      <c r="RW1" s="16"/>
+      <c r="RX1" s="16"/>
+      <c r="RY1" s="16"/>
+      <c r="RZ1" s="16"/>
+      <c r="SA1" s="16"/>
+      <c r="SB1" s="16"/>
+      <c r="SC1" s="16"/>
+      <c r="SD1" s="16"/>
+      <c r="SE1" s="16"/>
+      <c r="SF1" s="16"/>
+      <c r="SG1" s="16"/>
+      <c r="SH1" s="16"/>
+      <c r="SI1" s="16"/>
+      <c r="SJ1" s="17"/>
     </row>
-    <row r="2" spans="3:504" ht="200.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:504" ht="200.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="2"/>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="20"/>
-      <c r="Z2" s="20"/>
-      <c r="AA2" s="20"/>
-      <c r="AB2" s="20"/>
-      <c r="AC2" s="20"/>
-      <c r="AD2" s="20"/>
-      <c r="AE2" s="20"/>
-      <c r="AF2" s="20"/>
-      <c r="AG2" s="20"/>
-      <c r="AH2" s="20"/>
-      <c r="AI2" s="20"/>
-      <c r="AJ2" s="20"/>
-      <c r="AK2" s="20"/>
-      <c r="AL2" s="20"/>
-      <c r="AM2" s="20"/>
-      <c r="AN2" s="20"/>
-      <c r="AO2" s="20"/>
-      <c r="AP2" s="20"/>
-      <c r="AQ2" s="20"/>
-      <c r="AR2" s="20"/>
-      <c r="AS2" s="20"/>
-      <c r="AT2" s="20"/>
-      <c r="AU2" s="20"/>
-      <c r="AV2" s="20"/>
-      <c r="AW2" s="20"/>
-      <c r="AX2" s="20"/>
-      <c r="AY2" s="20"/>
-      <c r="AZ2" s="20"/>
-      <c r="BA2" s="20"/>
-      <c r="BB2" s="20"/>
-      <c r="BC2" s="20"/>
-      <c r="BD2" s="20"/>
-      <c r="BE2" s="20"/>
-      <c r="BF2" s="20"/>
-      <c r="BG2" s="20"/>
-      <c r="BH2" s="20"/>
-      <c r="BI2" s="20"/>
-      <c r="BJ2" s="20"/>
-      <c r="BK2" s="20"/>
-      <c r="BL2" s="20"/>
-      <c r="BM2" s="20"/>
-      <c r="BN2" s="20"/>
-      <c r="BO2" s="20"/>
-      <c r="BP2" s="20"/>
-      <c r="BQ2" s="20"/>
-      <c r="BR2" s="20"/>
-      <c r="BS2" s="20"/>
-      <c r="BT2" s="20"/>
-      <c r="BU2" s="20"/>
-      <c r="BV2" s="20"/>
-      <c r="BW2" s="20"/>
-      <c r="BX2" s="20"/>
-      <c r="BY2" s="20"/>
-      <c r="BZ2" s="20"/>
-      <c r="CA2" s="20"/>
-      <c r="CB2" s="20"/>
-      <c r="CC2" s="20"/>
-      <c r="CD2" s="20"/>
-      <c r="CE2" s="20"/>
-      <c r="CF2" s="20"/>
-      <c r="CG2" s="20"/>
-      <c r="CH2" s="20"/>
-      <c r="CI2" s="20"/>
-      <c r="CJ2" s="20"/>
-      <c r="CK2" s="20"/>
-      <c r="CL2" s="20"/>
-      <c r="CM2" s="20"/>
-      <c r="CN2" s="20"/>
-      <c r="CO2" s="20"/>
-      <c r="CP2" s="20"/>
-      <c r="CQ2" s="20"/>
-      <c r="CR2" s="20"/>
-      <c r="CS2" s="20"/>
-      <c r="CT2" s="20"/>
-      <c r="CU2" s="20"/>
-      <c r="CV2" s="20"/>
-      <c r="CW2" s="20"/>
-      <c r="CX2" s="20"/>
-      <c r="CY2" s="20"/>
-      <c r="CZ2" s="20"/>
-      <c r="DA2" s="20"/>
-      <c r="DB2" s="20"/>
-      <c r="DC2" s="20"/>
-      <c r="DD2" s="20"/>
-      <c r="DE2" s="20"/>
-      <c r="DF2" s="20"/>
-      <c r="DG2" s="20"/>
-      <c r="DH2" s="20"/>
-      <c r="DI2" s="20"/>
-      <c r="DJ2" s="20"/>
-      <c r="DK2" s="20"/>
-      <c r="DL2" s="20"/>
-      <c r="DM2" s="20"/>
-      <c r="DN2" s="20"/>
-      <c r="DO2" s="20"/>
-      <c r="DP2" s="20"/>
-      <c r="DQ2" s="20"/>
-      <c r="DR2" s="20"/>
-      <c r="DS2" s="20"/>
-      <c r="DT2" s="20"/>
-      <c r="DU2" s="20"/>
-      <c r="DV2" s="20"/>
-      <c r="DW2" s="20"/>
-      <c r="DX2" s="20"/>
-      <c r="DY2" s="20"/>
-      <c r="DZ2" s="20"/>
-      <c r="EA2" s="20"/>
-      <c r="EB2" s="20"/>
-      <c r="EC2" s="20"/>
-      <c r="ED2" s="20"/>
-      <c r="EE2" s="20"/>
-      <c r="EF2" s="20"/>
-      <c r="EG2" s="20"/>
-      <c r="EH2" s="20"/>
-      <c r="EI2" s="20"/>
-      <c r="EJ2" s="20"/>
-      <c r="EK2" s="20"/>
-      <c r="EL2" s="20"/>
-      <c r="EM2" s="20"/>
-      <c r="EN2" s="20"/>
-      <c r="EO2" s="20"/>
-      <c r="EP2" s="20"/>
-      <c r="EQ2" s="20"/>
-      <c r="ER2" s="20"/>
-      <c r="ES2" s="20"/>
-      <c r="ET2" s="20"/>
-      <c r="EU2" s="20"/>
-      <c r="EV2" s="20"/>
-      <c r="EW2" s="20"/>
-      <c r="EX2" s="20"/>
-      <c r="EY2" s="20"/>
-      <c r="EZ2" s="20"/>
-      <c r="FA2" s="20"/>
-      <c r="FB2" s="20"/>
-      <c r="FC2" s="20"/>
-      <c r="FD2" s="20"/>
-      <c r="FE2" s="20"/>
-      <c r="FF2" s="20"/>
-      <c r="FG2" s="20"/>
-      <c r="FH2" s="20"/>
-      <c r="FI2" s="20"/>
-      <c r="FJ2" s="20"/>
-      <c r="FK2" s="20"/>
-      <c r="FL2" s="20"/>
-      <c r="FM2" s="20"/>
-      <c r="FN2" s="20"/>
-      <c r="FO2" s="20"/>
-      <c r="FP2" s="20"/>
-      <c r="FQ2" s="20"/>
-      <c r="FR2" s="20"/>
-      <c r="FS2" s="20"/>
-      <c r="FT2" s="20"/>
-      <c r="FU2" s="20"/>
-      <c r="FV2" s="20"/>
-      <c r="FW2" s="20"/>
-      <c r="FX2" s="20"/>
-      <c r="FY2" s="20"/>
-      <c r="FZ2" s="20"/>
-      <c r="GA2" s="20"/>
-      <c r="GB2" s="20"/>
-      <c r="GC2" s="20"/>
-      <c r="GD2" s="20"/>
-      <c r="GE2" s="20"/>
-      <c r="GF2" s="20"/>
-      <c r="GG2" s="20"/>
-      <c r="GH2" s="20"/>
-      <c r="GI2" s="20"/>
-      <c r="GJ2" s="20"/>
-      <c r="GK2" s="20"/>
-      <c r="GL2" s="20"/>
-      <c r="GM2" s="20"/>
-      <c r="GN2" s="20"/>
-      <c r="GO2" s="20"/>
-      <c r="GP2" s="20"/>
-      <c r="GQ2" s="20"/>
-      <c r="GR2" s="20"/>
-      <c r="GS2" s="20"/>
-      <c r="GT2" s="20"/>
-      <c r="GU2" s="20"/>
-      <c r="GV2" s="20"/>
-      <c r="GW2" s="20"/>
-      <c r="GX2" s="20"/>
-      <c r="GY2" s="20"/>
-      <c r="GZ2" s="20"/>
-      <c r="HA2" s="20"/>
-      <c r="HB2" s="20"/>
-      <c r="HC2" s="20"/>
-      <c r="HD2" s="20"/>
-      <c r="HE2" s="20"/>
-      <c r="HF2" s="20"/>
-      <c r="HG2" s="20"/>
-      <c r="HH2" s="20"/>
-      <c r="HI2" s="20"/>
-      <c r="HJ2" s="20"/>
-      <c r="HK2" s="20"/>
-      <c r="HL2" s="20"/>
-      <c r="HM2" s="20"/>
-      <c r="HN2" s="20"/>
-      <c r="HO2" s="20"/>
-      <c r="HP2" s="20"/>
-      <c r="HQ2" s="20"/>
-      <c r="HR2" s="20"/>
-      <c r="HS2" s="20"/>
-      <c r="HT2" s="20"/>
-      <c r="HU2" s="20"/>
-      <c r="HV2" s="20"/>
-      <c r="HW2" s="20"/>
-      <c r="HX2" s="20"/>
-      <c r="HY2" s="20"/>
-      <c r="HZ2" s="20"/>
-      <c r="IA2" s="20"/>
-      <c r="IB2" s="20"/>
-      <c r="IC2" s="20"/>
-      <c r="ID2" s="20"/>
-      <c r="IE2" s="20"/>
-      <c r="IF2" s="20"/>
-      <c r="IG2" s="20"/>
-      <c r="IH2" s="20"/>
-      <c r="II2" s="20"/>
-      <c r="IJ2" s="20"/>
-      <c r="IK2" s="20"/>
-      <c r="IL2" s="20"/>
-      <c r="IM2" s="20"/>
-      <c r="IN2" s="20"/>
-      <c r="IO2" s="20"/>
-      <c r="IP2" s="20"/>
-      <c r="IQ2" s="20"/>
-      <c r="IR2" s="20"/>
-      <c r="IS2" s="20"/>
-      <c r="IT2" s="20"/>
-      <c r="IU2" s="20"/>
-      <c r="IV2" s="20"/>
-      <c r="IW2" s="20"/>
-      <c r="IX2" s="20"/>
-      <c r="IY2" s="20"/>
-      <c r="IZ2" s="20"/>
-      <c r="JA2" s="20"/>
-      <c r="JB2" s="20"/>
-      <c r="JC2" s="20"/>
-      <c r="JD2" s="20"/>
-      <c r="JE2" s="20"/>
-      <c r="JF2" s="20"/>
-      <c r="JG2" s="20"/>
-      <c r="JH2" s="20"/>
-      <c r="JI2" s="20"/>
-      <c r="JJ2" s="20"/>
-      <c r="JK2" s="20"/>
-      <c r="JL2" s="20"/>
-      <c r="JM2" s="20"/>
-      <c r="JN2" s="20"/>
-      <c r="JO2" s="20"/>
-      <c r="JP2" s="20"/>
-      <c r="JQ2" s="20"/>
-      <c r="JR2" s="20"/>
-      <c r="JS2" s="20"/>
-      <c r="JT2" s="20"/>
-      <c r="JU2" s="20"/>
-      <c r="JV2" s="20"/>
-      <c r="JW2" s="20"/>
-      <c r="JX2" s="20"/>
-      <c r="JY2" s="20"/>
-      <c r="JZ2" s="20"/>
-      <c r="KA2" s="20"/>
-      <c r="KB2" s="20"/>
-      <c r="KC2" s="20"/>
-      <c r="KD2" s="20"/>
-      <c r="KE2" s="20"/>
-      <c r="KF2" s="20"/>
-      <c r="KG2" s="20"/>
-      <c r="KH2" s="20"/>
-      <c r="KI2" s="20"/>
-      <c r="KJ2" s="20"/>
-      <c r="KK2" s="20"/>
-      <c r="KL2" s="20"/>
-      <c r="KM2" s="20"/>
-      <c r="KN2" s="20"/>
-      <c r="KO2" s="20"/>
-      <c r="KP2" s="20"/>
-      <c r="KQ2" s="20"/>
-      <c r="KR2" s="20"/>
-      <c r="KS2" s="20"/>
-      <c r="KT2" s="20"/>
-      <c r="KU2" s="20"/>
-      <c r="KV2" s="20"/>
-      <c r="KW2" s="20"/>
-      <c r="KX2" s="20"/>
-      <c r="KY2" s="20"/>
-      <c r="KZ2" s="20"/>
-      <c r="LA2" s="20"/>
-      <c r="LB2" s="20"/>
-      <c r="LC2" s="20"/>
-      <c r="LD2" s="20"/>
-      <c r="LE2" s="20"/>
-      <c r="LF2" s="20"/>
-      <c r="LG2" s="20"/>
-      <c r="LH2" s="20"/>
-      <c r="LI2" s="20"/>
-      <c r="LJ2" s="20"/>
-      <c r="LK2" s="20"/>
-      <c r="LL2" s="20"/>
-      <c r="LM2" s="20"/>
-      <c r="LN2" s="20"/>
-      <c r="LO2" s="20"/>
-      <c r="LP2" s="20"/>
-      <c r="LQ2" s="20"/>
-      <c r="LR2" s="20"/>
-      <c r="LS2" s="20"/>
-      <c r="LT2" s="20"/>
-      <c r="LU2" s="20"/>
-      <c r="LV2" s="20"/>
-      <c r="LW2" s="20"/>
-      <c r="LX2" s="20"/>
-      <c r="LY2" s="20"/>
-      <c r="LZ2" s="20"/>
-      <c r="MA2" s="20"/>
-      <c r="MB2" s="20"/>
-      <c r="MC2" s="20"/>
-      <c r="MD2" s="20"/>
-      <c r="ME2" s="20"/>
-      <c r="MF2" s="20"/>
-      <c r="MG2" s="20"/>
-      <c r="MH2" s="20"/>
-      <c r="MI2" s="20"/>
-      <c r="MJ2" s="20"/>
-      <c r="MK2" s="20"/>
-      <c r="ML2" s="20"/>
-      <c r="MM2" s="20"/>
-      <c r="MN2" s="20"/>
-      <c r="MO2" s="20"/>
-      <c r="MP2" s="20"/>
-      <c r="MQ2" s="20"/>
-      <c r="MR2" s="20"/>
-      <c r="MS2" s="20"/>
-      <c r="MT2" s="20"/>
-      <c r="MU2" s="20"/>
-      <c r="MV2" s="20"/>
-      <c r="MW2" s="20"/>
-      <c r="MX2" s="20"/>
-      <c r="MY2" s="20"/>
-      <c r="MZ2" s="20"/>
-      <c r="NA2" s="20"/>
-      <c r="NB2" s="20"/>
-      <c r="NC2" s="20"/>
-      <c r="ND2" s="20"/>
-      <c r="NE2" s="20"/>
-      <c r="NF2" s="20"/>
-      <c r="NG2" s="20"/>
-      <c r="NH2" s="20"/>
-      <c r="NI2" s="20"/>
-      <c r="NJ2" s="20"/>
-      <c r="NK2" s="20"/>
-      <c r="NL2" s="20"/>
-      <c r="NM2" s="20"/>
-      <c r="NN2" s="20"/>
-      <c r="NO2" s="20"/>
-      <c r="NP2" s="20"/>
-      <c r="NQ2" s="20"/>
-      <c r="NR2" s="20"/>
-      <c r="NS2" s="20"/>
-      <c r="NT2" s="20"/>
-      <c r="NU2" s="20"/>
-      <c r="NV2" s="20"/>
-      <c r="NW2" s="20"/>
-      <c r="NX2" s="20"/>
-      <c r="NY2" s="20"/>
-      <c r="NZ2" s="20"/>
-      <c r="OA2" s="20"/>
-      <c r="OB2" s="20"/>
-      <c r="OC2" s="20"/>
-      <c r="OD2" s="20"/>
-      <c r="OE2" s="20"/>
-      <c r="OF2" s="20"/>
-      <c r="OG2" s="20"/>
-      <c r="OH2" s="20"/>
-      <c r="OI2" s="20"/>
-      <c r="OJ2" s="20"/>
-      <c r="OK2" s="20"/>
-      <c r="OL2" s="20"/>
-      <c r="OM2" s="20"/>
-      <c r="ON2" s="20"/>
-      <c r="OO2" s="20"/>
-      <c r="OP2" s="20"/>
-      <c r="OQ2" s="20"/>
-      <c r="OR2" s="20"/>
-      <c r="OS2" s="20"/>
-      <c r="OT2" s="20"/>
-      <c r="OU2" s="20"/>
-      <c r="OV2" s="20"/>
-      <c r="OW2" s="20"/>
-      <c r="OX2" s="20"/>
-      <c r="OY2" s="20"/>
-      <c r="OZ2" s="20"/>
-      <c r="PA2" s="20"/>
-      <c r="PB2" s="20"/>
-      <c r="PC2" s="20"/>
-      <c r="PD2" s="20"/>
-      <c r="PE2" s="20"/>
-      <c r="PF2" s="20"/>
-      <c r="PG2" s="20"/>
-      <c r="PH2" s="20"/>
-      <c r="PI2" s="20"/>
-      <c r="PJ2" s="20"/>
-      <c r="PK2" s="20"/>
-      <c r="PL2" s="20"/>
-      <c r="PM2" s="20"/>
-      <c r="PN2" s="20"/>
-      <c r="PO2" s="20"/>
-      <c r="PP2" s="20"/>
-      <c r="PQ2" s="20"/>
-      <c r="PR2" s="20"/>
-      <c r="PS2" s="20"/>
-      <c r="PT2" s="20"/>
-      <c r="PU2" s="20"/>
-      <c r="PV2" s="20"/>
-      <c r="PW2" s="20"/>
-      <c r="PX2" s="20"/>
-      <c r="PY2" s="20"/>
-      <c r="PZ2" s="20"/>
-      <c r="QA2" s="20"/>
-      <c r="QB2" s="20"/>
-      <c r="QC2" s="20"/>
-      <c r="QD2" s="20"/>
-      <c r="QE2" s="20"/>
-      <c r="QF2" s="20"/>
-      <c r="QG2" s="20"/>
-      <c r="QH2" s="20"/>
-      <c r="QI2" s="20"/>
-      <c r="QJ2" s="20"/>
-      <c r="QK2" s="20"/>
-      <c r="QL2" s="20"/>
-      <c r="QM2" s="20"/>
-      <c r="QN2" s="20"/>
-      <c r="QO2" s="20"/>
-      <c r="QP2" s="20"/>
-      <c r="QQ2" s="20"/>
-      <c r="QR2" s="20"/>
-      <c r="QS2" s="20"/>
-      <c r="QT2" s="20"/>
-      <c r="QU2" s="20"/>
-      <c r="QV2" s="20"/>
-      <c r="QW2" s="20"/>
-      <c r="QX2" s="20"/>
-      <c r="QY2" s="20"/>
-      <c r="QZ2" s="20"/>
-      <c r="RA2" s="20"/>
-      <c r="RB2" s="20"/>
-      <c r="RC2" s="20"/>
-      <c r="RD2" s="20"/>
-      <c r="RE2" s="20"/>
-      <c r="RF2" s="20"/>
-      <c r="RG2" s="20"/>
-      <c r="RH2" s="20"/>
-      <c r="RI2" s="20"/>
-      <c r="RJ2" s="20"/>
-      <c r="RK2" s="20"/>
-      <c r="RL2" s="20"/>
-      <c r="RM2" s="20"/>
-      <c r="RN2" s="20"/>
-      <c r="RO2" s="20"/>
-      <c r="RP2" s="20"/>
-      <c r="RQ2" s="20"/>
-      <c r="RR2" s="20"/>
-      <c r="RS2" s="20"/>
-      <c r="RT2" s="20"/>
-      <c r="RU2" s="20"/>
-      <c r="RV2" s="20"/>
-      <c r="RW2" s="20"/>
-      <c r="RX2" s="20"/>
-      <c r="RY2" s="20"/>
-      <c r="RZ2" s="20"/>
-      <c r="SA2" s="20"/>
-      <c r="SB2" s="20"/>
-      <c r="SC2" s="20"/>
-      <c r="SD2" s="20"/>
-      <c r="SE2" s="20"/>
-      <c r="SF2" s="20"/>
-      <c r="SG2" s="20"/>
-      <c r="SH2" s="20"/>
-      <c r="SI2" s="20"/>
-      <c r="SJ2" s="21"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="16"/>
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="16"/>
+      <c r="AA2" s="16"/>
+      <c r="AB2" s="16"/>
+      <c r="AC2" s="16"/>
+      <c r="AD2" s="16"/>
+      <c r="AE2" s="16"/>
+      <c r="AF2" s="16"/>
+      <c r="AG2" s="16"/>
+      <c r="AH2" s="16"/>
+      <c r="AI2" s="16"/>
+      <c r="AJ2" s="16"/>
+      <c r="AK2" s="16"/>
+      <c r="AL2" s="16"/>
+      <c r="AM2" s="16"/>
+      <c r="AN2" s="16"/>
+      <c r="AO2" s="16"/>
+      <c r="AP2" s="16"/>
+      <c r="AQ2" s="16"/>
+      <c r="AR2" s="16"/>
+      <c r="AS2" s="16"/>
+      <c r="AT2" s="16"/>
+      <c r="AU2" s="16"/>
+      <c r="AV2" s="16"/>
+      <c r="AW2" s="16"/>
+      <c r="AX2" s="16"/>
+      <c r="AY2" s="16"/>
+      <c r="AZ2" s="16"/>
+      <c r="BA2" s="16"/>
+      <c r="BB2" s="16"/>
+      <c r="BC2" s="16"/>
+      <c r="BD2" s="16"/>
+      <c r="BE2" s="16"/>
+      <c r="BF2" s="16"/>
+      <c r="BG2" s="16"/>
+      <c r="BH2" s="16"/>
+      <c r="BI2" s="16"/>
+      <c r="BJ2" s="16"/>
+      <c r="BK2" s="16"/>
+      <c r="BL2" s="16"/>
+      <c r="BM2" s="16"/>
+      <c r="BN2" s="16"/>
+      <c r="BO2" s="16"/>
+      <c r="BP2" s="16"/>
+      <c r="BQ2" s="16"/>
+      <c r="BR2" s="16"/>
+      <c r="BS2" s="16"/>
+      <c r="BT2" s="16"/>
+      <c r="BU2" s="16"/>
+      <c r="BV2" s="16"/>
+      <c r="BW2" s="16"/>
+      <c r="BX2" s="16"/>
+      <c r="BY2" s="16"/>
+      <c r="BZ2" s="16"/>
+      <c r="CA2" s="16"/>
+      <c r="CB2" s="16"/>
+      <c r="CC2" s="16"/>
+      <c r="CD2" s="16"/>
+      <c r="CE2" s="16"/>
+      <c r="CF2" s="16"/>
+      <c r="CG2" s="16"/>
+      <c r="CH2" s="16"/>
+      <c r="CI2" s="16"/>
+      <c r="CJ2" s="16"/>
+      <c r="CK2" s="16"/>
+      <c r="CL2" s="16"/>
+      <c r="CM2" s="16"/>
+      <c r="CN2" s="16"/>
+      <c r="CO2" s="16"/>
+      <c r="CP2" s="16"/>
+      <c r="CQ2" s="16"/>
+      <c r="CR2" s="16"/>
+      <c r="CS2" s="16"/>
+      <c r="CT2" s="16"/>
+      <c r="CU2" s="16"/>
+      <c r="CV2" s="16"/>
+      <c r="CW2" s="16"/>
+      <c r="CX2" s="16"/>
+      <c r="CY2" s="16"/>
+      <c r="CZ2" s="16"/>
+      <c r="DA2" s="16"/>
+      <c r="DB2" s="16"/>
+      <c r="DC2" s="16"/>
+      <c r="DD2" s="16"/>
+      <c r="DE2" s="16"/>
+      <c r="DF2" s="16"/>
+      <c r="DG2" s="16"/>
+      <c r="DH2" s="16"/>
+      <c r="DI2" s="16"/>
+      <c r="DJ2" s="16"/>
+      <c r="DK2" s="16"/>
+      <c r="DL2" s="16"/>
+      <c r="DM2" s="16"/>
+      <c r="DN2" s="16"/>
+      <c r="DO2" s="16"/>
+      <c r="DP2" s="16"/>
+      <c r="DQ2" s="16"/>
+      <c r="DR2" s="16"/>
+      <c r="DS2" s="16"/>
+      <c r="DT2" s="16"/>
+      <c r="DU2" s="16"/>
+      <c r="DV2" s="16"/>
+      <c r="DW2" s="16"/>
+      <c r="DX2" s="16"/>
+      <c r="DY2" s="16"/>
+      <c r="DZ2" s="16"/>
+      <c r="EA2" s="16"/>
+      <c r="EB2" s="16"/>
+      <c r="EC2" s="16"/>
+      <c r="ED2" s="16"/>
+      <c r="EE2" s="16"/>
+      <c r="EF2" s="16"/>
+      <c r="EG2" s="16"/>
+      <c r="EH2" s="16"/>
+      <c r="EI2" s="16"/>
+      <c r="EJ2" s="16"/>
+      <c r="EK2" s="16"/>
+      <c r="EL2" s="16"/>
+      <c r="EM2" s="16"/>
+      <c r="EN2" s="16"/>
+      <c r="EO2" s="16"/>
+      <c r="EP2" s="16"/>
+      <c r="EQ2" s="16"/>
+      <c r="ER2" s="16"/>
+      <c r="ES2" s="16"/>
+      <c r="ET2" s="16"/>
+      <c r="EU2" s="16"/>
+      <c r="EV2" s="16"/>
+      <c r="EW2" s="16"/>
+      <c r="EX2" s="16"/>
+      <c r="EY2" s="16"/>
+      <c r="EZ2" s="16"/>
+      <c r="FA2" s="16"/>
+      <c r="FB2" s="16"/>
+      <c r="FC2" s="16"/>
+      <c r="FD2" s="16"/>
+      <c r="FE2" s="16"/>
+      <c r="FF2" s="16"/>
+      <c r="FG2" s="16"/>
+      <c r="FH2" s="16"/>
+      <c r="FI2" s="16"/>
+      <c r="FJ2" s="16"/>
+      <c r="FK2" s="16"/>
+      <c r="FL2" s="16"/>
+      <c r="FM2" s="16"/>
+      <c r="FN2" s="16"/>
+      <c r="FO2" s="16"/>
+      <c r="FP2" s="16"/>
+      <c r="FQ2" s="16"/>
+      <c r="FR2" s="16"/>
+      <c r="FS2" s="16"/>
+      <c r="FT2" s="16"/>
+      <c r="FU2" s="16"/>
+      <c r="FV2" s="16"/>
+      <c r="FW2" s="16"/>
+      <c r="FX2" s="16"/>
+      <c r="FY2" s="16"/>
+      <c r="FZ2" s="16"/>
+      <c r="GA2" s="16"/>
+      <c r="GB2" s="16"/>
+      <c r="GC2" s="16"/>
+      <c r="GD2" s="16"/>
+      <c r="GE2" s="16"/>
+      <c r="GF2" s="16"/>
+      <c r="GG2" s="16"/>
+      <c r="GH2" s="16"/>
+      <c r="GI2" s="16"/>
+      <c r="GJ2" s="16"/>
+      <c r="GK2" s="16"/>
+      <c r="GL2" s="16"/>
+      <c r="GM2" s="16"/>
+      <c r="GN2" s="16"/>
+      <c r="GO2" s="16"/>
+      <c r="GP2" s="16"/>
+      <c r="GQ2" s="16"/>
+      <c r="GR2" s="16"/>
+      <c r="GS2" s="16"/>
+      <c r="GT2" s="16"/>
+      <c r="GU2" s="16"/>
+      <c r="GV2" s="16"/>
+      <c r="GW2" s="16"/>
+      <c r="GX2" s="16"/>
+      <c r="GY2" s="16"/>
+      <c r="GZ2" s="16"/>
+      <c r="HA2" s="16"/>
+      <c r="HB2" s="16"/>
+      <c r="HC2" s="16"/>
+      <c r="HD2" s="16"/>
+      <c r="HE2" s="16"/>
+      <c r="HF2" s="16"/>
+      <c r="HG2" s="16"/>
+      <c r="HH2" s="16"/>
+      <c r="HI2" s="16"/>
+      <c r="HJ2" s="16"/>
+      <c r="HK2" s="16"/>
+      <c r="HL2" s="16"/>
+      <c r="HM2" s="16"/>
+      <c r="HN2" s="16"/>
+      <c r="HO2" s="16"/>
+      <c r="HP2" s="16"/>
+      <c r="HQ2" s="16"/>
+      <c r="HR2" s="16"/>
+      <c r="HS2" s="16"/>
+      <c r="HT2" s="16"/>
+      <c r="HU2" s="16"/>
+      <c r="HV2" s="16"/>
+      <c r="HW2" s="16"/>
+      <c r="HX2" s="16"/>
+      <c r="HY2" s="16"/>
+      <c r="HZ2" s="16"/>
+      <c r="IA2" s="16"/>
+      <c r="IB2" s="16"/>
+      <c r="IC2" s="16"/>
+      <c r="ID2" s="16"/>
+      <c r="IE2" s="16"/>
+      <c r="IF2" s="16"/>
+      <c r="IG2" s="16"/>
+      <c r="IH2" s="16"/>
+      <c r="II2" s="16"/>
+      <c r="IJ2" s="16"/>
+      <c r="IK2" s="16"/>
+      <c r="IL2" s="16"/>
+      <c r="IM2" s="16"/>
+      <c r="IN2" s="16"/>
+      <c r="IO2" s="16"/>
+      <c r="IP2" s="16"/>
+      <c r="IQ2" s="16"/>
+      <c r="IR2" s="16"/>
+      <c r="IS2" s="16"/>
+      <c r="IT2" s="16"/>
+      <c r="IU2" s="16"/>
+      <c r="IV2" s="16"/>
+      <c r="IW2" s="16"/>
+      <c r="IX2" s="16"/>
+      <c r="IY2" s="16"/>
+      <c r="IZ2" s="16"/>
+      <c r="JA2" s="16"/>
+      <c r="JB2" s="16"/>
+      <c r="JC2" s="16"/>
+      <c r="JD2" s="16"/>
+      <c r="JE2" s="16"/>
+      <c r="JF2" s="16"/>
+      <c r="JG2" s="16"/>
+      <c r="JH2" s="16"/>
+      <c r="JI2" s="16"/>
+      <c r="JJ2" s="16"/>
+      <c r="JK2" s="16"/>
+      <c r="JL2" s="16"/>
+      <c r="JM2" s="16"/>
+      <c r="JN2" s="16"/>
+      <c r="JO2" s="16"/>
+      <c r="JP2" s="16"/>
+      <c r="JQ2" s="16"/>
+      <c r="JR2" s="16"/>
+      <c r="JS2" s="16"/>
+      <c r="JT2" s="16"/>
+      <c r="JU2" s="16"/>
+      <c r="JV2" s="16"/>
+      <c r="JW2" s="16"/>
+      <c r="JX2" s="16"/>
+      <c r="JY2" s="16"/>
+      <c r="JZ2" s="16"/>
+      <c r="KA2" s="16"/>
+      <c r="KB2" s="16"/>
+      <c r="KC2" s="16"/>
+      <c r="KD2" s="16"/>
+      <c r="KE2" s="16"/>
+      <c r="KF2" s="16"/>
+      <c r="KG2" s="16"/>
+      <c r="KH2" s="16"/>
+      <c r="KI2" s="16"/>
+      <c r="KJ2" s="16"/>
+      <c r="KK2" s="16"/>
+      <c r="KL2" s="16"/>
+      <c r="KM2" s="16"/>
+      <c r="KN2" s="16"/>
+      <c r="KO2" s="16"/>
+      <c r="KP2" s="16"/>
+      <c r="KQ2" s="16"/>
+      <c r="KR2" s="16"/>
+      <c r="KS2" s="16"/>
+      <c r="KT2" s="16"/>
+      <c r="KU2" s="16"/>
+      <c r="KV2" s="16"/>
+      <c r="KW2" s="16"/>
+      <c r="KX2" s="16"/>
+      <c r="KY2" s="16"/>
+      <c r="KZ2" s="16"/>
+      <c r="LA2" s="16"/>
+      <c r="LB2" s="16"/>
+      <c r="LC2" s="16"/>
+      <c r="LD2" s="16"/>
+      <c r="LE2" s="16"/>
+      <c r="LF2" s="16"/>
+      <c r="LG2" s="16"/>
+      <c r="LH2" s="16"/>
+      <c r="LI2" s="16"/>
+      <c r="LJ2" s="16"/>
+      <c r="LK2" s="16"/>
+      <c r="LL2" s="16"/>
+      <c r="LM2" s="16"/>
+      <c r="LN2" s="16"/>
+      <c r="LO2" s="16"/>
+      <c r="LP2" s="16"/>
+      <c r="LQ2" s="16"/>
+      <c r="LR2" s="16"/>
+      <c r="LS2" s="16"/>
+      <c r="LT2" s="16"/>
+      <c r="LU2" s="16"/>
+      <c r="LV2" s="16"/>
+      <c r="LW2" s="16"/>
+      <c r="LX2" s="16"/>
+      <c r="LY2" s="16"/>
+      <c r="LZ2" s="16"/>
+      <c r="MA2" s="16"/>
+      <c r="MB2" s="16"/>
+      <c r="MC2" s="16"/>
+      <c r="MD2" s="16"/>
+      <c r="ME2" s="16"/>
+      <c r="MF2" s="16"/>
+      <c r="MG2" s="16"/>
+      <c r="MH2" s="16"/>
+      <c r="MI2" s="16"/>
+      <c r="MJ2" s="16"/>
+      <c r="MK2" s="16"/>
+      <c r="ML2" s="16"/>
+      <c r="MM2" s="16"/>
+      <c r="MN2" s="16"/>
+      <c r="MO2" s="16"/>
+      <c r="MP2" s="16"/>
+      <c r="MQ2" s="16"/>
+      <c r="MR2" s="16"/>
+      <c r="MS2" s="16"/>
+      <c r="MT2" s="16"/>
+      <c r="MU2" s="16"/>
+      <c r="MV2" s="16"/>
+      <c r="MW2" s="16"/>
+      <c r="MX2" s="16"/>
+      <c r="MY2" s="16"/>
+      <c r="MZ2" s="16"/>
+      <c r="NA2" s="16"/>
+      <c r="NB2" s="16"/>
+      <c r="NC2" s="16"/>
+      <c r="ND2" s="16"/>
+      <c r="NE2" s="16"/>
+      <c r="NF2" s="16"/>
+      <c r="NG2" s="16"/>
+      <c r="NH2" s="16"/>
+      <c r="NI2" s="16"/>
+      <c r="NJ2" s="16"/>
+      <c r="NK2" s="16"/>
+      <c r="NL2" s="16"/>
+      <c r="NM2" s="16"/>
+      <c r="NN2" s="16"/>
+      <c r="NO2" s="16"/>
+      <c r="NP2" s="16"/>
+      <c r="NQ2" s="16"/>
+      <c r="NR2" s="16"/>
+      <c r="NS2" s="16"/>
+      <c r="NT2" s="16"/>
+      <c r="NU2" s="16"/>
+      <c r="NV2" s="16"/>
+      <c r="NW2" s="16"/>
+      <c r="NX2" s="16"/>
+      <c r="NY2" s="16"/>
+      <c r="NZ2" s="16"/>
+      <c r="OA2" s="16"/>
+      <c r="OB2" s="16"/>
+      <c r="OC2" s="16"/>
+      <c r="OD2" s="16"/>
+      <c r="OE2" s="16"/>
+      <c r="OF2" s="16"/>
+      <c r="OG2" s="16"/>
+      <c r="OH2" s="16"/>
+      <c r="OI2" s="16"/>
+      <c r="OJ2" s="16"/>
+      <c r="OK2" s="16"/>
+      <c r="OL2" s="16"/>
+      <c r="OM2" s="16"/>
+      <c r="ON2" s="16"/>
+      <c r="OO2" s="16"/>
+      <c r="OP2" s="16"/>
+      <c r="OQ2" s="16"/>
+      <c r="OR2" s="16"/>
+      <c r="OS2" s="16"/>
+      <c r="OT2" s="16"/>
+      <c r="OU2" s="16"/>
+      <c r="OV2" s="16"/>
+      <c r="OW2" s="16"/>
+      <c r="OX2" s="16"/>
+      <c r="OY2" s="16"/>
+      <c r="OZ2" s="16"/>
+      <c r="PA2" s="16"/>
+      <c r="PB2" s="16"/>
+      <c r="PC2" s="16"/>
+      <c r="PD2" s="16"/>
+      <c r="PE2" s="16"/>
+      <c r="PF2" s="16"/>
+      <c r="PG2" s="16"/>
+      <c r="PH2" s="16"/>
+      <c r="PI2" s="16"/>
+      <c r="PJ2" s="16"/>
+      <c r="PK2" s="16"/>
+      <c r="PL2" s="16"/>
+      <c r="PM2" s="16"/>
+      <c r="PN2" s="16"/>
+      <c r="PO2" s="16"/>
+      <c r="PP2" s="16"/>
+      <c r="PQ2" s="16"/>
+      <c r="PR2" s="16"/>
+      <c r="PS2" s="16"/>
+      <c r="PT2" s="16"/>
+      <c r="PU2" s="16"/>
+      <c r="PV2" s="16"/>
+      <c r="PW2" s="16"/>
+      <c r="PX2" s="16"/>
+      <c r="PY2" s="16"/>
+      <c r="PZ2" s="16"/>
+      <c r="QA2" s="16"/>
+      <c r="QB2" s="16"/>
+      <c r="QC2" s="16"/>
+      <c r="QD2" s="16"/>
+      <c r="QE2" s="16"/>
+      <c r="QF2" s="16"/>
+      <c r="QG2" s="16"/>
+      <c r="QH2" s="16"/>
+      <c r="QI2" s="16"/>
+      <c r="QJ2" s="16"/>
+      <c r="QK2" s="16"/>
+      <c r="QL2" s="16"/>
+      <c r="QM2" s="16"/>
+      <c r="QN2" s="16"/>
+      <c r="QO2" s="16"/>
+      <c r="QP2" s="16"/>
+      <c r="QQ2" s="16"/>
+      <c r="QR2" s="16"/>
+      <c r="QS2" s="16"/>
+      <c r="QT2" s="16"/>
+      <c r="QU2" s="16"/>
+      <c r="QV2" s="16"/>
+      <c r="QW2" s="16"/>
+      <c r="QX2" s="16"/>
+      <c r="QY2" s="16"/>
+      <c r="QZ2" s="16"/>
+      <c r="RA2" s="16"/>
+      <c r="RB2" s="16"/>
+      <c r="RC2" s="16"/>
+      <c r="RD2" s="16"/>
+      <c r="RE2" s="16"/>
+      <c r="RF2" s="16"/>
+      <c r="RG2" s="16"/>
+      <c r="RH2" s="16"/>
+      <c r="RI2" s="16"/>
+      <c r="RJ2" s="16"/>
+      <c r="RK2" s="16"/>
+      <c r="RL2" s="16"/>
+      <c r="RM2" s="16"/>
+      <c r="RN2" s="16"/>
+      <c r="RO2" s="16"/>
+      <c r="RP2" s="16"/>
+      <c r="RQ2" s="16"/>
+      <c r="RR2" s="16"/>
+      <c r="RS2" s="16"/>
+      <c r="RT2" s="16"/>
+      <c r="RU2" s="16"/>
+      <c r="RV2" s="16"/>
+      <c r="RW2" s="16"/>
+      <c r="RX2" s="16"/>
+      <c r="RY2" s="16"/>
+      <c r="RZ2" s="16"/>
+      <c r="SA2" s="16"/>
+      <c r="SB2" s="16"/>
+      <c r="SC2" s="16"/>
+      <c r="SD2" s="16"/>
+      <c r="SE2" s="16"/>
+      <c r="SF2" s="16"/>
+      <c r="SG2" s="16"/>
+      <c r="SH2" s="16"/>
+      <c r="SI2" s="16"/>
+      <c r="SJ2" s="17"/>
     </row>
-    <row r="3" spans="3:504" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:504" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2017,25 +2001,25 @@
         <v>4</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>81</v>
+        <v>95</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -2531,33 +2515,33 @@
       <c r="SI3" s="3"/>
       <c r="SJ3" s="3"/>
     </row>
-    <row r="4" spans="3:504" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="16" t="s">
+    <row r="4" spans="3:504" x14ac:dyDescent="0.25">
+      <c r="C4" s="18" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>91</v>
+        <v>101</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
@@ -3054,7 +3038,7 @@
       <c r="SJ4" s="5"/>
     </row>
     <row r="5" spans="3:504" x14ac:dyDescent="0.25">
-      <c r="C5" s="18"/>
+      <c r="C5" s="20"/>
       <c r="D5" s="4" t="s">
         <v>7</v>
       </c>
@@ -4560,30 +4544,30 @@
       </c>
     </row>
     <row r="6" spans="3:504" x14ac:dyDescent="0.25">
-      <c r="C6" s="18"/>
+      <c r="C6" s="20"/>
       <c r="D6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>94</v>
+      <c r="E6" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
@@ -5080,43 +5064,35 @@
       <c r="SJ6" s="5"/>
     </row>
     <row r="7" spans="3:504" x14ac:dyDescent="0.25">
-      <c r="C7" s="18"/>
+      <c r="C7" s="20"/>
       <c r="D7" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>84</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
@@ -5608,30 +5584,30 @@
       <c r="SJ7" s="5"/>
     </row>
     <row r="8" spans="3:504" x14ac:dyDescent="0.25">
-      <c r="C8" s="18"/>
+      <c r="C8" s="20"/>
       <c r="D8" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
@@ -6128,30 +6104,30 @@
       <c r="SJ8" s="5"/>
     </row>
     <row r="9" spans="3:504" x14ac:dyDescent="0.25">
-      <c r="C9" s="18"/>
+      <c r="C9" s="20"/>
       <c r="D9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>13</v>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1</v>
+      </c>
+      <c r="H9" s="5">
+        <v>1</v>
+      </c>
+      <c r="I9" s="5">
+        <v>1</v>
+      </c>
+      <c r="J9" s="5">
+        <v>1</v>
+      </c>
+      <c r="K9" s="5">
+        <v>1</v>
       </c>
       <c r="L9" s="5" t="s">
         <v>13</v>
@@ -7634,7 +7610,7 @@
       </c>
     </row>
     <row r="10" spans="3:504" x14ac:dyDescent="0.25">
-      <c r="C10" s="18"/>
+      <c r="C10" s="20"/>
       <c r="D10" s="4" t="s">
         <v>14</v>
       </c>
@@ -7647,10 +7623,18 @@
       <c r="G10" s="5">
         <v>0</v>
       </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0</v>
+      </c>
+      <c r="K10" s="5">
+        <v>0</v>
+      </c>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
@@ -8146,30 +8130,30 @@
       <c r="SJ10" s="5"/>
     </row>
     <row r="11" spans="3:504" x14ac:dyDescent="0.25">
-      <c r="C11" s="17"/>
+      <c r="C11" s="19"/>
       <c r="D11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>13</v>
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5">
+        <v>1</v>
+      </c>
+      <c r="G11" s="5">
+        <v>1</v>
+      </c>
+      <c r="H11" s="5">
+        <v>1</v>
+      </c>
+      <c r="I11" s="5">
+        <v>1</v>
+      </c>
+      <c r="J11" s="5">
+        <v>1</v>
+      </c>
+      <c r="K11" s="5">
+        <v>1</v>
       </c>
       <c r="L11" s="5" t="s">
         <v>13</v>
@@ -9652,7 +9636,7 @@
       </c>
     </row>
     <row r="12" spans="3:504" x14ac:dyDescent="0.25">
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="18" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="4" t="s">
@@ -10160,7 +10144,7 @@
       <c r="SJ12" s="5"/>
     </row>
     <row r="13" spans="3:504" x14ac:dyDescent="0.25">
-      <c r="C13" s="18"/>
+      <c r="C13" s="20"/>
       <c r="D13" s="4" t="s">
         <v>18</v>
       </c>
@@ -10666,7 +10650,7 @@
       <c r="SJ13" s="5"/>
     </row>
     <row r="14" spans="3:504" x14ac:dyDescent="0.25">
-      <c r="C14" s="18"/>
+      <c r="C14" s="20"/>
       <c r="D14" s="4" t="s">
         <v>19</v>
       </c>
@@ -11172,7 +11156,7 @@
       <c r="SJ14" s="5"/>
     </row>
     <row r="15" spans="3:504" x14ac:dyDescent="0.25">
-      <c r="C15" s="17"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="4" t="s">
         <v>20</v>
       </c>
@@ -11678,32 +11662,32 @@
       <c r="SJ15" s="5"/>
     </row>
     <row r="16" spans="3:504" x14ac:dyDescent="0.25">
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="18" t="s">
         <v>21</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
@@ -12200,30 +12184,30 @@
       <c r="SJ16" s="5"/>
     </row>
     <row r="17" spans="3:504" x14ac:dyDescent="0.25">
-      <c r="C17" s="18"/>
+      <c r="C17" s="20"/>
       <c r="D17" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>24</v>
+        <v>117</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>24</v>
+        <v>117</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>24</v>
+        <v>117</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>24</v>
+        <v>117</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>24</v>
+        <v>117</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>24</v>
+        <v>117</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>24</v>
+        <v>117</v>
       </c>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
@@ -12720,9 +12704,9 @@
       <c r="SJ17" s="5"/>
     </row>
     <row r="18" spans="3:504" x14ac:dyDescent="0.25">
-      <c r="C18" s="18"/>
+      <c r="C18" s="20"/>
       <c r="D18" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
@@ -13226,9 +13210,9 @@
       <c r="SJ18" s="7"/>
     </row>
     <row r="19" spans="3:504" x14ac:dyDescent="0.25">
-      <c r="C19" s="18"/>
+      <c r="C19" s="20"/>
       <c r="D19" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -13732,9 +13716,9 @@
       <c r="SJ19" s="5"/>
     </row>
     <row r="20" spans="3:504" x14ac:dyDescent="0.25">
-      <c r="C20" s="18"/>
+      <c r="C20" s="20"/>
       <c r="D20" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
@@ -14238,9 +14222,9 @@
       <c r="SJ20" s="7"/>
     </row>
     <row r="21" spans="3:504" x14ac:dyDescent="0.25">
-      <c r="C21" s="18"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -14744,9 +14728,9 @@
       <c r="SJ21" s="5"/>
     </row>
     <row r="22" spans="3:504" x14ac:dyDescent="0.25">
-      <c r="C22" s="18"/>
+      <c r="C22" s="20"/>
       <c r="D22" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
@@ -15250,30 +15234,30 @@
       <c r="SJ22" s="7"/>
     </row>
     <row r="23" spans="3:504" x14ac:dyDescent="0.25">
-      <c r="C23" s="18"/>
+      <c r="C23" s="20"/>
       <c r="D23" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>31</v>
+        <v>118</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>31</v>
+        <v>118</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>31</v>
+        <v>118</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>31</v>
+        <v>118</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>31</v>
+        <v>118</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>31</v>
+        <v>118</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>31</v>
+        <v>118</v>
       </c>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
@@ -15770,9 +15754,9 @@
       <c r="SJ23" s="5"/>
     </row>
     <row r="24" spans="3:504" x14ac:dyDescent="0.25">
-      <c r="C24" s="18"/>
+      <c r="C24" s="20"/>
       <c r="D24" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
@@ -16276,9 +16260,9 @@
       <c r="SJ24" s="7"/>
     </row>
     <row r="25" spans="3:504" x14ac:dyDescent="0.25">
-      <c r="C25" s="18"/>
+      <c r="C25" s="20"/>
       <c r="D25" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
@@ -16782,9 +16766,9 @@
       <c r="SJ25" s="5"/>
     </row>
     <row r="26" spans="3:504" x14ac:dyDescent="0.25">
-      <c r="C26" s="18"/>
+      <c r="C26" s="20"/>
       <c r="D26" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
@@ -17288,30 +17272,30 @@
       <c r="SJ26" s="7"/>
     </row>
     <row r="27" spans="3:504" x14ac:dyDescent="0.25">
-      <c r="C27" s="18"/>
+      <c r="C27" s="20"/>
       <c r="D27" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>31</v>
+        <v>118</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>31</v>
+        <v>118</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>31</v>
+        <v>118</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>31</v>
+        <v>118</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>31</v>
+        <v>118</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>31</v>
+        <v>118</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>31</v>
+        <v>118</v>
       </c>
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
@@ -17808,30 +17792,30 @@
       <c r="SJ27" s="5"/>
     </row>
     <row r="28" spans="3:504" x14ac:dyDescent="0.25">
-      <c r="C28" s="18"/>
+      <c r="C28" s="20"/>
       <c r="D28" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>31</v>
+        <v>118</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>31</v>
+        <v>118</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>31</v>
+        <v>118</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>31</v>
+        <v>118</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>31</v>
+        <v>118</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>31</v>
+        <v>118</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>31</v>
+        <v>118</v>
       </c>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
@@ -18328,9 +18312,9 @@
       <c r="SJ28" s="7"/>
     </row>
     <row r="29" spans="3:504" x14ac:dyDescent="0.25">
-      <c r="C29" s="18"/>
+      <c r="C29" s="20"/>
       <c r="D29" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
@@ -18834,30 +18818,30 @@
       <c r="SJ29" s="5"/>
     </row>
     <row r="30" spans="3:504" x14ac:dyDescent="0.25">
-      <c r="C30" s="18"/>
+      <c r="C30" s="20"/>
       <c r="D30" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>31</v>
+        <v>118</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>31</v>
+        <v>118</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>31</v>
+        <v>118</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>31</v>
+        <v>118</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>31</v>
+        <v>118</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>31</v>
+        <v>118</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>31</v>
+        <v>118</v>
       </c>
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
@@ -19354,30 +19338,30 @@
       <c r="SJ30" s="7"/>
     </row>
     <row r="31" spans="3:504" x14ac:dyDescent="0.25">
-      <c r="C31" s="18"/>
+      <c r="C31" s="20"/>
       <c r="D31" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
@@ -19874,30 +19858,30 @@
       <c r="SJ31" s="5"/>
     </row>
     <row r="32" spans="3:504" x14ac:dyDescent="0.25">
-      <c r="C32" s="18"/>
+      <c r="C32" s="20"/>
       <c r="D32" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
@@ -20394,9 +20378,9 @@
       <c r="SJ32" s="5"/>
     </row>
     <row r="33" spans="3:504" x14ac:dyDescent="0.25">
-      <c r="C33" s="17"/>
+      <c r="C33" s="19"/>
       <c r="D33" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
@@ -20900,11 +20884,11 @@
       <c r="SJ33" s="5"/>
     </row>
     <row r="34" spans="3:504" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C34" s="16" t="s">
-        <v>44</v>
+      <c r="C34" s="18" t="s">
+        <v>40</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
@@ -21408,11 +21392,11 @@
       <c r="SJ34" s="5"/>
     </row>
     <row r="35" spans="3:504" x14ac:dyDescent="0.25">
-      <c r="C35" s="16" t="s">
-        <v>46</v>
+      <c r="C35" s="18" t="s">
+        <v>42</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
@@ -21916,9 +21900,9 @@
       <c r="SJ35" s="5"/>
     </row>
     <row r="36" spans="3:504" x14ac:dyDescent="0.25">
-      <c r="C36" s="17"/>
+      <c r="C36" s="19"/>
       <c r="D36" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
@@ -22422,11 +22406,11 @@
       <c r="SJ36" s="5"/>
     </row>
     <row r="37" spans="3:504" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C37" s="16" t="s">
-        <v>49</v>
+      <c r="C37" s="18" t="s">
+        <v>45</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
@@ -22929,31 +22913,31 @@
       <c r="SI37" s="9"/>
       <c r="SJ37" s="9"/>
     </row>
-    <row r="38" spans="3:504" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C38" s="16"/>
+    <row r="38" spans="3:504" x14ac:dyDescent="0.25">
+      <c r="C38" s="18"/>
       <c r="D38" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="I38" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="J38" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="K38" s="10" t="s">
         <v>123</v>
-      </c>
-      <c r="J38" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="K38" s="10" t="s">
-        <v>128</v>
       </c>
       <c r="L38" s="10"/>
       <c r="M38" s="10"/>
@@ -23450,30 +23434,30 @@
       <c r="SJ38" s="10"/>
     </row>
     <row r="39" spans="3:504" x14ac:dyDescent="0.25">
-      <c r="C39" s="18"/>
+      <c r="C39" s="20"/>
       <c r="D39" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="I39" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="J39" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="K39" s="10" t="s">
         <v>126</v>
-      </c>
-      <c r="J39" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="K39" s="10" t="s">
-        <v>127</v>
       </c>
       <c r="L39" s="10"/>
       <c r="M39" s="10"/>
@@ -23970,9 +23954,9 @@
       <c r="SJ39" s="10"/>
     </row>
     <row r="40" spans="3:504" x14ac:dyDescent="0.25">
-      <c r="C40" s="18"/>
+      <c r="C40" s="20"/>
       <c r="D40" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -24476,9 +24460,9 @@
       <c r="SJ40" s="10"/>
     </row>
     <row r="41" spans="3:504" x14ac:dyDescent="0.25">
-      <c r="C41" s="17"/>
+      <c r="C41" s="19"/>
       <c r="D41" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
@@ -24982,32 +24966,32 @@
       <c r="SJ41" s="11"/>
     </row>
     <row r="42" spans="3:504" x14ac:dyDescent="0.25">
-      <c r="C42" s="16" t="s">
-        <v>49</v>
+      <c r="C42" s="18" t="s">
+        <v>45</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J42" s="10" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="K42" s="10" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="L42" s="10"/>
       <c r="M42" s="10"/>
@@ -25504,30 +25488,30 @@
       <c r="SJ42" s="10"/>
     </row>
     <row r="43" spans="3:504" x14ac:dyDescent="0.25">
-      <c r="C43" s="18"/>
+      <c r="C43" s="20"/>
       <c r="D43" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="J43" s="10" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="K43" s="10" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="L43" s="10"/>
       <c r="M43" s="10"/>
@@ -26024,30 +26008,30 @@
       <c r="SJ43" s="10"/>
     </row>
     <row r="44" spans="3:504" x14ac:dyDescent="0.25">
-      <c r="C44" s="18"/>
+      <c r="C44" s="20"/>
       <c r="D44" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="J44" s="10" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="K44" s="10" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="L44" s="10"/>
       <c r="M44" s="10"/>
@@ -26544,30 +26528,30 @@
       <c r="SJ44" s="10"/>
     </row>
     <row r="45" spans="3:504" x14ac:dyDescent="0.25">
-      <c r="C45" s="18"/>
+      <c r="C45" s="20"/>
       <c r="D45" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="I45" s="10" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="J45" s="10" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="K45" s="10" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="L45" s="10"/>
       <c r="M45" s="10"/>
@@ -27064,30 +27048,30 @@
       <c r="SJ45" s="10"/>
     </row>
     <row r="46" spans="3:504" x14ac:dyDescent="0.25">
-      <c r="C46" s="18"/>
+      <c r="C46" s="20"/>
       <c r="D46" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="I46" s="10" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="J46" s="10" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="K46" s="10" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="L46" s="10"/>
       <c r="M46" s="10"/>
@@ -27584,30 +27568,30 @@
       <c r="SJ46" s="10"/>
     </row>
     <row r="47" spans="3:504" x14ac:dyDescent="0.25">
-      <c r="C47" s="18"/>
+      <c r="C47" s="20"/>
       <c r="D47" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="H47" s="10" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="I47" s="10" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="J47" s="10" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="K47" s="10" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="L47" s="10"/>
       <c r="M47" s="10"/>
@@ -28104,30 +28088,30 @@
       <c r="SJ47" s="10"/>
     </row>
     <row r="48" spans="3:504" x14ac:dyDescent="0.25">
-      <c r="C48" s="18"/>
+      <c r="C48" s="20"/>
       <c r="D48" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="I48" s="10" t="s">
-        <v>124</v>
+        <v>86</v>
       </c>
       <c r="J48" s="10" t="s">
-        <v>125</v>
+        <v>86</v>
       </c>
       <c r="K48" s="10" t="s">
-        <v>125</v>
+        <v>86</v>
       </c>
       <c r="L48" s="10"/>
       <c r="M48" s="10"/>
@@ -28624,21 +28608,21 @@
       <c r="SJ48" s="10"/>
     </row>
     <row r="49" spans="3:504" x14ac:dyDescent="0.25">
-      <c r="C49" s="18"/>
+      <c r="C49" s="20"/>
       <c r="D49" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="I49" s="10"/>
       <c r="J49" s="10"/>
@@ -29138,9 +29122,9 @@
       <c r="SJ49" s="10"/>
     </row>
     <row r="50" spans="3:504" x14ac:dyDescent="0.25">
-      <c r="C50" s="18"/>
+      <c r="C50" s="20"/>
       <c r="D50" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
@@ -29644,9 +29628,9 @@
       <c r="SJ50" s="10"/>
     </row>
     <row r="51" spans="3:504" x14ac:dyDescent="0.25">
-      <c r="C51" s="17"/>
+      <c r="C51" s="19"/>
       <c r="D51" s="8" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E51" s="11"/>
       <c r="F51" s="11"/>
@@ -30152,23 +30136,22 @@
   </sheetData>
   <sheetProtection password="DFAB" sheet="1"/>
   <mergeCells count="10">
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C37"/>
-    <mergeCell ref="C38:C41"/>
     <mergeCell ref="C42:C51"/>
-    <mergeCell ref="D1:SJ1"/>
-    <mergeCell ref="D2:SJ2"/>
-    <mergeCell ref="C4:C11"/>
     <mergeCell ref="C12:C15"/>
     <mergeCell ref="C16:C33"/>
+    <mergeCell ref="C4:C11"/>
+    <mergeCell ref="C37"/>
+    <mergeCell ref="D1:SJ1"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="D2:SJ2"/>
     <mergeCell ref="C34"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="12">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Input error" error="Please pick a value from the drop-down list" prompt="Please pick a value from the drop-down list" sqref="E5:SJ5" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"In place,Proposed,To be replaced,To be upgraded,To be removed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Input error" error="Please pick a value from the drop-down list" prompt="Please pick a value from the drop-down list" sqref="G6:SJ6" xr:uid="{00000000-0002-0000-0000-0000F5010000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Input error" error="Please pick a value from the drop-down list" prompt="Please pick a value from the drop-down list" sqref="E6:SJ6" xr:uid="{00000000-0002-0000-0000-0000F5010000}">
       <formula1>"F84107,E6003E,BAAB8A,67DC62,43AD47,49494A,F26311,CD00FC,D3D4D5,59C5DD,F8C309,1A6BD7"</formula1>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Input error" error="Only numbers between 0 and 10 are allowed." prompt="Please input a number between 0 and 10" sqref="E9:SJ9" xr:uid="{00000000-0002-0000-0000-0000E9030000}">
@@ -30206,11 +30189,11 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+        <x14:dataValidation type="list" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>Accessories!$B$2:$B$1048576</xm:f>
           </x14:formula1>
@@ -30224,235 +30207,231 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="A18:F19"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="60" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="55.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" t="s">
         <v>64</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>65</v>
-      </c>
-      <c r="C1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="E2">
+      <c r="A2" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="13">
         <v>0</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="C3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="E3">
+      <c r="C3" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="13">
         <v>0</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="C4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="E4">
+      <c r="A4" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="13">
         <v>0</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="C5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="E5">
+      <c r="A5" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="13">
         <v>0</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="E6">
+      <c r="A6" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="13">
         <v>0</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="A7" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="E7">
+      <c r="E7" s="13">
         <v>0</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="E8">
+      <c r="A8" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" s="13">
         <v>0</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B9" t="s">
-        <v>85</v>
-      </c>
-      <c r="C9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D9" t="s">
-        <v>82</v>
-      </c>
-      <c r="E9">
+      <c r="A9" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="13">
         <v>0</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C10" t="s">
-        <v>84</v>
-      </c>
-      <c r="E10">
+      <c r="A10" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="13">
         <v>0</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C11" t="s">
-        <v>84</v>
-      </c>
-      <c r="E11">
+      <c r="A11" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="13">
         <v>0</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D18" s="15"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>